--- a/kgstats-generated/2024.11.11/stats/xlsx/voc-chars-top-by-best-speed.xlsx
+++ b/kgstats-generated/2024.11.11/stats/xlsx/voc-chars-top-by-best-speed.xlsx
@@ -68,7 +68,7 @@
     <t>tryme</t>
   </si>
   <si>
-    <t>1 ч. 19 мин. 0 сек.</t>
+    <t>1 ч. 19 мин. 00 сек.</t>
   </si>
   <si>
     <t>4</t>
@@ -113,7 +113,7 @@
     <t>EVERGLOW</t>
   </si>
   <si>
-    <t>17 ч. 4 мин. 33 сек.</t>
+    <t>17 ч. 04 мин. 33 сек.</t>
   </si>
   <si>
     <t>9</t>
@@ -149,7 +149,7 @@
     <t>Static</t>
   </si>
   <si>
-    <t>47 ч. 11 мин. 5 сек.</t>
+    <t>47 ч. 11 мин. 05 сек.</t>
   </si>
   <si>
     <t>13</t>
@@ -167,7 +167,7 @@
     <t>КлавоЕд</t>
   </si>
   <si>
-    <t>207 ч. 7 мин. 16 сек.</t>
+    <t>207 ч. 07 мин. 16 сек.</t>
   </si>
   <si>
     <t>15</t>
@@ -185,7 +185,7 @@
     <t>oqiwue</t>
   </si>
   <si>
-    <t>6 ч. 3 мин. 32 сек.</t>
+    <t>6 ч. 03 мин. 32 сек.</t>
   </si>
   <si>
     <t>17</t>
@@ -230,7 +230,7 @@
     <t>оно</t>
   </si>
   <si>
-    <t>23 ч. 5 мин. 18 сек.</t>
+    <t>23 ч. 05 мин. 18 сек.</t>
   </si>
   <si>
     <t>22</t>
@@ -257,7 +257,7 @@
     <t>RoaKoth</t>
   </si>
   <si>
-    <t>7 ч. 8 мин. 6 сек.</t>
+    <t>7 ч. 08 мин. 06 сек.</t>
   </si>
   <si>
     <t>25</t>
@@ -275,7 +275,7 @@
     <t>ролд</t>
   </si>
   <si>
-    <t>317 ч. 55 мин. 2 сек.</t>
+    <t>317 ч. 55 мин. 02 сек.</t>
   </si>
   <si>
     <t>27</t>
@@ -317,7 +317,7 @@
     <t>Reventon</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 38 сек.</t>
+    <t>1 ч. 01 мин. 38 сек.</t>
   </si>
   <si>
     <t>ToNick</t>
@@ -365,7 +365,7 @@
     <t>Oxanette</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 9 сек.</t>
+    <t>3 ч. 05 мин. 09 сек.</t>
   </si>
   <si>
     <t>Виталька</t>
@@ -380,7 +380,7 @@
     <t>ИльдарВолжский</t>
   </si>
   <si>
-    <t>78 ч. 27 мин. 4 сек.</t>
+    <t>78 ч. 27 мин. 04 сек.</t>
   </si>
   <si>
     <t>40</t>
@@ -398,7 +398,7 @@
     <t>a_mikhaylov</t>
   </si>
   <si>
-    <t>40 ч. 11 мин. 0 сек.</t>
+    <t>40 ч. 11 мин. 00 сек.</t>
   </si>
   <si>
     <t>42</t>
@@ -425,7 +425,7 @@
     <t>Кинолог</t>
   </si>
   <si>
-    <t>8 ч. 43 мин. 5 сек.</t>
+    <t>8 ч. 43 мин. 05 сек.</t>
   </si>
   <si>
     <t>45</t>
@@ -434,7 +434,7 @@
     <t>Крам</t>
   </si>
   <si>
-    <t>2 ч. 56 мин. 9 сек.</t>
+    <t>2 ч. 56 мин. 09 сек.</t>
   </si>
   <si>
     <t>46–48</t>
@@ -449,7 +449,7 @@
     <t>_Daemon_</t>
   </si>
   <si>
-    <t>6 ч. 2 мин. 50 сек.</t>
+    <t>6 ч. 02 мин. 50 сек.</t>
   </si>
   <si>
     <t>maks-</t>
@@ -464,7 +464,7 @@
     <t>KeyCRACKer</t>
   </si>
   <si>
-    <t>8 ч. 41 мин. 0 сек.</t>
+    <t>8 ч. 41 мин. 00 сек.</t>
   </si>
   <si>
     <t>50</t>
@@ -491,7 +491,7 @@
     <t>zenz</t>
   </si>
   <si>
-    <t>3 ч. 24 мин. 5 сек.</t>
+    <t>3 ч. 24 мин. 05 сек.</t>
   </si>
   <si>
     <t>53</t>
@@ -500,7 +500,7 @@
     <t>Ваньсон</t>
   </si>
   <si>
-    <t>8 ч. 12 мин. 5 сек.</t>
+    <t>8 ч. 12 мин. 05 сек.</t>
   </si>
   <si>
     <t>54–55</t>
@@ -515,7 +515,7 @@
     <t>Примус_починяю</t>
   </si>
   <si>
-    <t>103 ч. 1 мин. 5 сек.</t>
+    <t>103 ч. 01 мин. 05 сек.</t>
   </si>
   <si>
     <t>56</t>
@@ -524,7 +524,7 @@
     <t>TJuggernaut</t>
   </si>
   <si>
-    <t>8 ч. 2 мин. 33 сек.</t>
+    <t>8 ч. 02 мин. 33 сек.</t>
   </si>
   <si>
     <t>57–58</t>
@@ -539,7 +539,7 @@
     <t>Pelagiad</t>
   </si>
   <si>
-    <t>11 ч. 59 мин. 5 сек.</t>
+    <t>11 ч. 59 мин. 05 сек.</t>
   </si>
   <si>
     <t>59–60</t>
@@ -548,13 +548,13 @@
     <t>Noob228</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 32 сек.</t>
+    <t>1 ч. 01 мин. 32 сек.</t>
   </si>
   <si>
     <t>Аферист</t>
   </si>
   <si>
-    <t>80 ч. 53 мин. 1 сек.</t>
+    <t>80 ч. 53 мин. 01 сек.</t>
   </si>
   <si>
     <t>61</t>
@@ -581,7 +581,7 @@
     <t>Vertex_</t>
   </si>
   <si>
-    <t>5 ч. 15 мин. 9 сек.</t>
+    <t>5 ч. 15 мин. 09 сек.</t>
   </si>
   <si>
     <t>64–65</t>
@@ -617,13 +617,13 @@
     <t>Davydoff</t>
   </si>
   <si>
-    <t>20 ч. 8 мин. 8 сек.</t>
+    <t>20 ч. 08 мин. 08 сек.</t>
   </si>
   <si>
     <t>ancv2000</t>
   </si>
   <si>
-    <t>25 ч. 8 мин. 38 сек.</t>
+    <t>25 ч. 08 мин. 38 сек.</t>
   </si>
   <si>
     <t>70</t>
@@ -656,25 +656,25 @@
     <t>darkneon</t>
   </si>
   <si>
-    <t>5 ч. 57 мин. 3 сек.</t>
+    <t>5 ч. 57 мин. 03 сек.</t>
   </si>
   <si>
     <t>iforrest</t>
   </si>
   <si>
-    <t>5 ч. 26 мин. 5 сек.</t>
+    <t>5 ч. 26 мин. 05 сек.</t>
   </si>
   <si>
     <t>Алина_</t>
   </si>
   <si>
-    <t>27 ч. 48 мин. 3 сек.</t>
+    <t>27 ч. 48 мин. 03 сек.</t>
   </si>
   <si>
     <t>Maksuta</t>
   </si>
   <si>
-    <t>79 ч. 5 мин. 10 сек.</t>
+    <t>79 ч. 05 мин. 10 сек.</t>
   </si>
   <si>
     <t>77</t>
@@ -701,7 +701,7 @@
     <t>RealWizZard</t>
   </si>
   <si>
-    <t>1 ч. 15 мин. 3 сек.</t>
+    <t>1 ч. 15 мин. 03 сек.</t>
   </si>
   <si>
     <t>HRUST</t>
@@ -713,7 +713,7 @@
     <t>AvtandiLine</t>
   </si>
   <si>
-    <t>27 ч. 56 мин. 1 сек.</t>
+    <t>27 ч. 56 мин. 01 сек.</t>
   </si>
   <si>
     <t>82–85</t>
@@ -734,7 +734,7 @@
     <t>kosmos</t>
   </si>
   <si>
-    <t>45 ч. 4 мин. 3 сек.</t>
+    <t>45 ч. 04 мин. 03 сек.</t>
   </si>
   <si>
     <t>-IL-</t>
@@ -758,7 +758,7 @@
     <t>Аленка</t>
   </si>
   <si>
-    <t>15 ч. 0 мин. 32 сек.</t>
+    <t>15 ч. 00 мин. 32 сек.</t>
   </si>
   <si>
     <t>WERT7</t>
@@ -809,13 +809,13 @@
     <t>nosferatum</t>
   </si>
   <si>
-    <t>55 ч. 1 мин. 23 сек.</t>
+    <t>55 ч. 01 мин. 23 сек.</t>
   </si>
   <si>
     <t>albert-</t>
   </si>
   <si>
-    <t>169 ч. 2 мин. 57 сек.</t>
+    <t>169 ч. 02 мин. 57 сек.</t>
   </si>
   <si>
     <t>96</t>
@@ -833,13 +833,13 @@
     <t>lazy</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 16 сек.</t>
+    <t>2 ч. 06 мин. 16 сек.</t>
   </si>
   <si>
     <t>дядя_Паша</t>
   </si>
   <si>
-    <t>9 ч. 9 мин. 35 сек.</t>
+    <t>9 ч. 09 мин. 35 сек.</t>
   </si>
   <si>
     <t>ТрынТрава</t>
@@ -878,7 +878,7 @@
     <t>Коретай</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 9 сек.</t>
+    <t>2 ч. 00 мин. 09 сек.</t>
   </si>
   <si>
     <t>D1mchik</t>
@@ -890,7 +890,7 @@
     <t>Игрок3</t>
   </si>
   <si>
-    <t>15 ч. 38 мин. 4 сек.</t>
+    <t>15 ч. 38 мин. 04 сек.</t>
   </si>
   <si>
     <t>106–110</t>
@@ -923,7 +923,7 @@
     <t>Анна_Банановна</t>
   </si>
   <si>
-    <t>79 ч. 6 мин. 53 сек.</t>
+    <t>79 ч. 06 мин. 53 сек.</t>
   </si>
   <si>
     <t>111–115</t>
@@ -932,13 +932,13 @@
     <t>seeker_</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 20 сек.</t>
+    <t>3 ч. 06 мин. 20 сек.</t>
   </si>
   <si>
     <t>Defaul</t>
   </si>
   <si>
-    <t>10 ч. 6 мин. 6 сек.</t>
+    <t>10 ч. 06 мин. 06 сек.</t>
   </si>
   <si>
     <t>Disobey</t>
@@ -971,7 +971,7 @@
     <t>TSI</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 17 сек.</t>
+    <t>3 ч. 08 мин. 17 сек.</t>
   </si>
   <si>
     <t>SpiritCrusher</t>
@@ -1046,7 +1046,7 @@
     <t>Велимира</t>
   </si>
   <si>
-    <t>49 ч. 0 мин. 29 сек.</t>
+    <t>49 ч. 00 мин. 29 сек.</t>
   </si>
   <si>
     <t>129–131</t>
@@ -1097,7 +1097,7 @@
     <t>ПЕРЖО</t>
   </si>
   <si>
-    <t>13 ч. 42 мин. 7 сек.</t>
+    <t>13 ч. 42 мин. 07 сек.</t>
   </si>
   <si>
     <t>xks</t>
@@ -1124,7 +1124,7 @@
     <t>psst</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 53 сек.</t>
+    <t>5 ч. 07 мин. 53 сек.</t>
   </si>
   <si>
     <t>140–141</t>
@@ -1133,7 +1133,7 @@
     <t>-Wanted-</t>
   </si>
   <si>
-    <t>8 ч. 14 мин. 3 сек.</t>
+    <t>8 ч. 14 мин. 03 сек.</t>
   </si>
   <si>
     <t>ACnuPAHT</t>
@@ -1148,19 +1148,19 @@
     <t>Ш0ТАМ</t>
   </si>
   <si>
-    <t>9 ч. 5 мин. 57 сек.</t>
+    <t>9 ч. 05 мин. 57 сек.</t>
   </si>
   <si>
     <t>ТрупОдиночка</t>
   </si>
   <si>
-    <t>18 ч. 8 мин. 17 сек.</t>
+    <t>18 ч. 08 мин. 17 сек.</t>
   </si>
   <si>
     <t>igormsu</t>
   </si>
   <si>
-    <t>18 ч. 49 мин. 2 сек.</t>
+    <t>18 ч. 49 мин. 02 сек.</t>
   </si>
   <si>
     <t>nonstop_</t>
@@ -1172,7 +1172,7 @@
     <t>VanDyk</t>
   </si>
   <si>
-    <t>21 ч. 9 мин. 2 сек.</t>
+    <t>21 ч. 09 мин. 02 сек.</t>
   </si>
   <si>
     <t>147–148</t>
@@ -1181,7 +1181,7 @@
     <t>petzsch</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 44 сек.</t>
+    <t>5 ч. 07 мин. 44 сек.</t>
   </si>
   <si>
     <t>_onix</t>
@@ -1244,7 +1244,7 @@
     <t>Healingproof</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 2 сек.</t>
+    <t>6 ч. 07 мин. 02 сек.</t>
   </si>
   <si>
     <t>trup225</t>
@@ -1292,7 +1292,7 @@
     <t>r0w</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 49 сек.</t>
+    <t>1 ч. 01 мин. 49 сек.</t>
   </si>
   <si>
     <t>Langolierrr</t>
@@ -1328,13 +1328,13 @@
     <t>Pavellum</t>
   </si>
   <si>
-    <t>3 ч. 20 мин. 5 сек.</t>
+    <t>3 ч. 20 мин. 05 сек.</t>
   </si>
   <si>
     <t>МсМотя</t>
   </si>
   <si>
-    <t>7 ч. 39 мин. 0 сек.</t>
+    <t>7 ч. 39 мин. 00 сек.</t>
   </si>
   <si>
     <t>KimiWRC</t>
@@ -1370,19 +1370,19 @@
     <t>Торописька</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 53 сек.</t>
+    <t>1 ч. 01 мин. 53 сек.</t>
   </si>
   <si>
     <t>Pastor_nak</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 36 сек.</t>
+    <t>2 ч. 01 мин. 36 сек.</t>
   </si>
   <si>
     <t>FreeHugs</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 20 сек.</t>
+    <t>4 ч. 00 мин. 20 сек.</t>
   </si>
   <si>
     <t>176–178</t>
@@ -1397,7 +1397,7 @@
     <t>m9so88</t>
   </si>
   <si>
-    <t>9 ч. 0 мин. 48 сек.</t>
+    <t>9 ч. 00 мин. 48 сек.</t>
   </si>
   <si>
     <t>InToTheSorrow</t>
@@ -1412,7 +1412,7 @@
     <t>n1Riper</t>
   </si>
   <si>
-    <t>1 ч. 23 мин. 8 сек.</t>
+    <t>1 ч. 23 мин. 08 сек.</t>
   </si>
   <si>
     <t>180–181</t>
@@ -1427,7 +1427,7 @@
     <t>Viktor_Animal</t>
   </si>
   <si>
-    <t>32 ч. 56 мин. 1 сек.</t>
+    <t>32 ч. 56 мин. 01 сек.</t>
   </si>
   <si>
     <t>182–186</t>
@@ -1460,7 +1460,7 @@
     <t>yurk</t>
   </si>
   <si>
-    <t>36 ч. 6 мин. 16 сек.</t>
+    <t>36 ч. 06 мин. 16 сек.</t>
   </si>
   <si>
     <t>187–191</t>
@@ -1469,7 +1469,7 @@
     <t>ant1k</t>
   </si>
   <si>
-    <t>1 ч. 48 мин. 7 сек.</t>
+    <t>1 ч. 48 мин. 07 сек.</t>
   </si>
   <si>
     <t>Speedometer</t>
@@ -1502,7 +1502,7 @@
     <t>Hovga</t>
   </si>
   <si>
-    <t>9 ч. 2 мин. 3 сек.</t>
+    <t>9 ч. 02 мин. 03 сек.</t>
   </si>
   <si>
     <t>Hewo</t>
@@ -1514,7 +1514,7 @@
     <t>WWW</t>
   </si>
   <si>
-    <t>20 ч. 5 мин. 32 сек.</t>
+    <t>20 ч. 05 мин. 32 сек.</t>
   </si>
   <si>
     <t>asiegres</t>
@@ -1571,7 +1571,7 @@
     <t>m9_AZ</t>
   </si>
   <si>
-    <t>8 ч. 9 мин. 14 сек.</t>
+    <t>8 ч. 09 мин. 14 сек.</t>
   </si>
   <si>
     <t>Дед-Пихто</t>
@@ -1586,7 +1586,7 @@
     <t>Seyaua</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 10 сек.</t>
+    <t>1 ч. 05 мин. 10 сек.</t>
   </si>
   <si>
     <t>Евсеев</t>
@@ -1604,13 +1604,13 @@
     <t>элля</t>
   </si>
   <si>
-    <t>7 ч. 34 мин. 6 сек.</t>
+    <t>7 ч. 34 мин. 06 сек.</t>
   </si>
   <si>
     <t>KOSTYA410</t>
   </si>
   <si>
-    <t>12 ч. 30 мин. 5 сек.</t>
+    <t>12 ч. 30 мин. 05 сек.</t>
   </si>
   <si>
     <t>Phemmer</t>
@@ -1631,7 +1631,7 @@
     <t>Стивочка</t>
   </si>
   <si>
-    <t>14 ч. 57 мин. 7 сек.</t>
+    <t>14 ч. 57 мин. 07 сек.</t>
   </si>
   <si>
     <t>Я_Олег</t>
@@ -1649,7 +1649,7 @@
     <t>InsydeR</t>
   </si>
   <si>
-    <t>43 ч. 48 мин. 0 сек.</t>
+    <t>43 ч. 48 мин. 00 сек.</t>
   </si>
   <si>
     <t>215–217</t>
@@ -1658,19 +1658,19 @@
     <t>Galaad</t>
   </si>
   <si>
-    <t>4 ч. 49 мин. 0 сек.</t>
+    <t>4 ч. 49 мин. 00 сек.</t>
   </si>
   <si>
     <t>HeLLios</t>
   </si>
   <si>
-    <t>17 ч. 32 мин. 0 сек.</t>
+    <t>17 ч. 32 мин. 00 сек.</t>
   </si>
   <si>
     <t>ТРЕКК</t>
   </si>
   <si>
-    <t>33 ч. 42 мин. 3 сек.</t>
+    <t>33 ч. 42 мин. 03 сек.</t>
   </si>
   <si>
     <t>218–220</t>
@@ -1691,7 +1691,7 @@
     <t>_XimiquE_</t>
   </si>
   <si>
-    <t>10 ч. 1 мин. 0 сек.</t>
+    <t>10 ч. 01 мин. 00 сек.</t>
   </si>
   <si>
     <t>221–226</t>
@@ -1706,13 +1706,13 @@
     <t>ReadySteadyGo_</t>
   </si>
   <si>
-    <t>2 ч. 30 мин. 1 сек.</t>
+    <t>2 ч. 30 мин. 01 сек.</t>
   </si>
   <si>
     <t>_Nicole_</t>
   </si>
   <si>
-    <t>2 ч. 43 мин. 8 сек.</t>
+    <t>2 ч. 43 мин. 08 сек.</t>
   </si>
   <si>
     <t>Batterc</t>
@@ -1730,7 +1730,7 @@
     <t>dverg</t>
   </si>
   <si>
-    <t>9 ч. 39 мин. 1 сек.</t>
+    <t>9 ч. 39 мин. 01 сек.</t>
   </si>
   <si>
     <t>227–230</t>
@@ -1739,13 +1739,13 @@
     <t>Макрушин</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 57 сек.</t>
+    <t>3 ч. 05 мин. 57 сек.</t>
   </si>
   <si>
     <t>Bolot</t>
   </si>
   <si>
-    <t>9 ч. 6 мин. 38 сек.</t>
+    <t>9 ч. 06 мин. 38 сек.</t>
   </si>
   <si>
     <t>olimo</t>
@@ -1757,7 +1757,7 @@
     <t>tarak</t>
   </si>
   <si>
-    <t>69 ч. 13 мин. 6 сек.</t>
+    <t>69 ч. 13 мин. 06 сек.</t>
   </si>
   <si>
     <t>231–233</t>
@@ -1787,7 +1787,7 @@
     <t>liuluil</t>
   </si>
   <si>
-    <t>1 ч. 55 мин. 8 сек.</t>
+    <t>1 ч. 55 мин. 08 сек.</t>
   </si>
   <si>
     <t>235–236</t>
@@ -1796,7 +1796,7 @@
     <t>ness1</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 33 сек.</t>
+    <t>1 ч. 07 мин. 33 сек.</t>
   </si>
   <si>
     <t>Tottiwa</t>
@@ -1832,7 +1832,7 @@
     <t>DarkStar76</t>
   </si>
   <si>
-    <t>7 ч. 33 мин. 5 сек.</t>
+    <t>7 ч. 33 мин. 05 сек.</t>
   </si>
   <si>
     <t>marinka19</t>
@@ -1880,7 +1880,7 @@
     <t>Башмак</t>
   </si>
   <si>
-    <t>17 ч. 2 мин. 41 сек.</t>
+    <t>17 ч. 02 мин. 41 сек.</t>
   </si>
   <si>
     <t>ТОМА-АТОМНАЯ</t>
@@ -1922,13 +1922,13 @@
     <t>БукваА</t>
   </si>
   <si>
-    <t>7 ч. 44 мин. 5 сек.</t>
+    <t>7 ч. 44 мин. 05 сек.</t>
   </si>
   <si>
     <t>die-hard</t>
   </si>
   <si>
-    <t>10 ч. 4 мин. 4 сек.</t>
+    <t>10 ч. 04 мин. 04 сек.</t>
   </si>
   <si>
     <t>treexH</t>
@@ -1958,7 +1958,7 @@
     <t>lovertone</t>
   </si>
   <si>
-    <t>1 ч. 16 мин. 8 сек.</t>
+    <t>1 ч. 16 мин. 08 сек.</t>
   </si>
   <si>
     <t>Melior</t>
@@ -1970,7 +1970,7 @@
     <t>бегущий_ананас</t>
   </si>
   <si>
-    <t>6 ч. 13 мин. 7 сек.</t>
+    <t>6 ч. 13 мин. 07 сек.</t>
   </si>
   <si>
     <t>Anhel-kam</t>
@@ -2021,7 +2021,7 @@
     <t>Pisaka</t>
   </si>
   <si>
-    <t>23 ч. 20 мин. 6 сек.</t>
+    <t>23 ч. 20 мин. 06 сек.</t>
   </si>
   <si>
     <t>269–272</t>
@@ -2036,7 +2036,7 @@
     <t>4ick</t>
   </si>
   <si>
-    <t>2 ч. 23 мин. 6 сек.</t>
+    <t>2 ч. 23 мин. 06 сек.</t>
   </si>
   <si>
     <t>snow</t>
@@ -2048,7 +2048,7 @@
     <t>Обгоняша</t>
   </si>
   <si>
-    <t>11 ч. 5 мин. 15 сек.</t>
+    <t>11 ч. 05 мин. 15 сек.</t>
   </si>
   <si>
     <t>273–279</t>
@@ -2057,7 +2057,7 @@
     <t>Хамелеон</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 57 сек.</t>
+    <t>1 ч. 07 мин. 57 сек.</t>
   </si>
   <si>
     <t>imd54</t>
@@ -2069,7 +2069,7 @@
     <t>Manhunt714</t>
   </si>
   <si>
-    <t>4 ч. 28 мин. 7 сек.</t>
+    <t>4 ч. 28 мин. 07 сек.</t>
   </si>
   <si>
     <t>Eremite</t>
@@ -2114,7 +2114,7 @@
     <t>Pupupuprum</t>
   </si>
   <si>
-    <t>1 ч. 55 мин. 9 сек.</t>
+    <t>1 ч. 55 мин. 09 сек.</t>
   </si>
   <si>
     <t>FerStY</t>
@@ -2165,13 +2165,13 @@
     <t>Falster</t>
   </si>
   <si>
-    <t>13 ч. 10 мин. 3 сек.</t>
+    <t>13 ч. 10 мин. 03 сек.</t>
   </si>
   <si>
     <t>Gorynych</t>
   </si>
   <si>
-    <t>50 ч. 5 мин. 28 сек.</t>
+    <t>50 ч. 05 мин. 28 сек.</t>
   </si>
   <si>
     <t>292</t>
@@ -2195,7 +2195,7 @@
     <t>Us2s</t>
   </si>
   <si>
-    <t>4 ч. 39 мин. 3 сек.</t>
+    <t>4 ч. 39 мин. 03 сек.</t>
   </si>
   <si>
     <t>Rb7</t>
@@ -2216,13 +2216,13 @@
     <t>Alex123451</t>
   </si>
   <si>
-    <t>2 ч. 54 мин. 1 сек.</t>
+    <t>2 ч. 54 мин. 01 сек.</t>
   </si>
   <si>
     <t>Irlani</t>
   </si>
   <si>
-    <t>13 ч. 5 мин. 9 сек.</t>
+    <t>13 ч. 05 мин. 09 сек.</t>
   </si>
   <si>
     <t>winix</t>
@@ -2237,13 +2237,13 @@
     <t>_-Shadow-_</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 34 сек.</t>
+    <t>4 ч. 00 мин. 34 сек.</t>
   </si>
   <si>
     <t>_Сайман_</t>
   </si>
   <si>
-    <t>4 ч. 8 мин. 2 сек.</t>
+    <t>4 ч. 08 мин. 02 сек.</t>
   </si>
   <si>
     <t>salser1982</t>
@@ -2306,7 +2306,7 @@
     <t>alanen</t>
   </si>
   <si>
-    <t>33 ч. 6 мин. 47 сек.</t>
+    <t>33 ч. 06 мин. 47 сек.</t>
   </si>
   <si>
     <t>312</t>
@@ -2315,7 +2315,7 @@
     <t>Dim37</t>
   </si>
   <si>
-    <t>28 ч. 7 мин. 39 сек.</t>
+    <t>28 ч. 07 мин. 39 сек.</t>
   </si>
   <si>
     <t>313–315</t>
@@ -2324,7 +2324,7 @@
     <t>salser_not</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 54 сек.</t>
+    <t>1 ч. 01 мин. 54 сек.</t>
   </si>
   <si>
     <t>ViSSion</t>
@@ -2357,7 +2357,7 @@
     <t>KAYFARYK</t>
   </si>
   <si>
-    <t>6 ч. 21 мин. 6 сек.</t>
+    <t>6 ч. 21 мин. 06 сек.</t>
   </si>
   <si>
     <t>Мирный</t>
@@ -2375,13 +2375,13 @@
     <t>Pipl</t>
   </si>
   <si>
-    <t>21 ч. 9 мин. 23 сек.</t>
+    <t>21 ч. 09 мин. 23 сек.</t>
   </si>
   <si>
     <t>LightStorm</t>
   </si>
   <si>
-    <t>28 ч. 5 мин. 19 сек.</t>
+    <t>28 ч. 05 мин. 19 сек.</t>
   </si>
   <si>
     <t>kakvaska</t>
@@ -2396,13 +2396,13 @@
     <t>Lien</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 7 сек.</t>
+    <t>1 ч. 03 мин. 07 сек.</t>
   </si>
   <si>
     <t>GhostInside</t>
   </si>
   <si>
-    <t>1 ч. 24 мин. 7 сек.</t>
+    <t>1 ч. 24 мин. 07 сек.</t>
   </si>
   <si>
     <t>ShirokiMiRukami</t>
@@ -2435,13 +2435,13 @@
     <t>qwAlxi</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 50 сек.</t>
+    <t>1 ч. 03 мин. 50 сек.</t>
   </si>
   <si>
     <t>robert_debauch</t>
   </si>
   <si>
-    <t>1 ч. 19 мин. 1 сек.</t>
+    <t>1 ч. 19 мин. 01 сек.</t>
   </si>
   <si>
     <t>Derevenshina</t>
@@ -2459,13 +2459,13 @@
     <t>200поСкоростной</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 45 сек.</t>
+    <t>6 ч. 07 мин. 45 сек.</t>
   </si>
   <si>
     <t>gosha_bel</t>
   </si>
   <si>
-    <t>11 ч. 23 мин. 0 сек.</t>
+    <t>11 ч. 23 мин. 00 сек.</t>
   </si>
   <si>
     <t>-LVV-</t>
@@ -2477,7 +2477,7 @@
     <t>Nick950</t>
   </si>
   <si>
-    <t>26 ч. 48 мин. 2 сек.</t>
+    <t>26 ч. 48 мин. 02 сек.</t>
   </si>
   <si>
     <t>338–343</t>
@@ -2486,7 +2486,7 @@
     <t>Grinn</t>
   </si>
   <si>
-    <t>1 ч. 22 мин. 0 сек.</t>
+    <t>1 ч. 22 мин. 00 сек.</t>
   </si>
   <si>
     <t>HUMAN</t>
@@ -2498,7 +2498,7 @@
     <t>kernal_debuger</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 16 сек.</t>
+    <t>3 ч. 03 мин. 16 сек.</t>
   </si>
   <si>
     <t>Sesquipedalian</t>
@@ -2531,7 +2531,7 @@
     <t>ITur</t>
   </si>
   <si>
-    <t>9 ч. 0 мин. 32 сек.</t>
+    <t>9 ч. 00 мин. 32 сек.</t>
   </si>
   <si>
     <t>newspaper</t>
@@ -2552,13 +2552,13 @@
     <t>BlaZe_RoX</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 59 сек.</t>
+    <t>3 ч. 07 мин. 59 сек.</t>
   </si>
   <si>
     <t>Квак</t>
   </si>
   <si>
-    <t>4 ч. 28 мин. 8 сек.</t>
+    <t>4 ч. 28 мин. 08 сек.</t>
   </si>
   <si>
     <t>aislyn</t>
@@ -2576,7 +2576,7 @@
     <t>8ele8</t>
   </si>
   <si>
-    <t>60 ч. 0 мин. 4 сек.</t>
+    <t>60 ч. 00 мин. 04 сек.</t>
   </si>
   <si>
     <t>353–355</t>
@@ -2606,7 +2606,7 @@
     <t>stc</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 33 сек.</t>
+    <t>1 ч. 01 мин. 33 сек.</t>
   </si>
   <si>
     <t>Тютчев</t>
@@ -2624,7 +2624,7 @@
     <t>отпросился</t>
   </si>
   <si>
-    <t>9 ч. 49 мин. 9 сек.</t>
+    <t>9 ч. 49 мин. 09 сек.</t>
   </si>
   <si>
     <t>Palette</t>
@@ -2681,7 +2681,7 @@
     <t>сварщик</t>
   </si>
   <si>
-    <t>12 ч. 1 мин. 45 сек.</t>
+    <t>12 ч. 01 мин. 45 сек.</t>
   </si>
   <si>
     <t>Fermmer</t>
@@ -2696,7 +2696,7 @@
     <t>SADPONY</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 51 сек.</t>
+    <t>1 ч. 07 мин. 51 сек.</t>
   </si>
   <si>
     <t>turbulent</t>
@@ -2717,25 +2717,25 @@
     <t>meganoob</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 39 сек.</t>
+    <t>1 ч. 05 мин. 39 сек.</t>
   </si>
   <si>
     <t>nat67</t>
   </si>
   <si>
-    <t>1 ч. 18 мин. 3 сек.</t>
+    <t>1 ч. 18 мин. 03 сек.</t>
   </si>
   <si>
     <t>Massik</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 51 сек.</t>
+    <t>2 ч. 01 мин. 51 сек.</t>
   </si>
   <si>
     <t>Gil_ru</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 21 сек.</t>
+    <t>2 ч. 07 мин. 21 сек.</t>
   </si>
   <si>
     <t>-HuKa-</t>
@@ -2753,7 +2753,7 @@
     <t>Grimpen</t>
   </si>
   <si>
-    <t>6 ч. 23 мин. 3 сек.</t>
+    <t>6 ч. 23 мин. 03 сек.</t>
   </si>
   <si>
     <t>Hakim</t>
@@ -2786,7 +2786,7 @@
     <t>MyxaMopxD</t>
   </si>
   <si>
-    <t>2 ч. 46 мин. 0 сек.</t>
+    <t>2 ч. 46 мин. 00 сек.</t>
   </si>
   <si>
     <t>malayka</t>
@@ -2819,7 +2819,7 @@
     <t>Фолко</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 40 сек.</t>
+    <t>1 ч. 03 мин. 40 сек.</t>
   </si>
   <si>
     <t>Frostegg</t>
@@ -2837,13 +2837,13 @@
     <t>Предатель</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 13 сек.</t>
+    <t>6 ч. 07 мин. 13 сек.</t>
   </si>
   <si>
     <t>сударь</t>
   </si>
   <si>
-    <t>6 ч. 17 мин. 4 сек.</t>
+    <t>6 ч. 17 мин. 04 сек.</t>
   </si>
   <si>
     <t>1hatedfate</t>
@@ -2861,7 +2861,7 @@
     <t>Кот_Черныш</t>
   </si>
   <si>
-    <t>28 ч. 16 мин. 8 сек.</t>
+    <t>28 ч. 16 мин. 08 сек.</t>
   </si>
   <si>
     <t>397–406</t>
@@ -2882,13 +2882,13 @@
     <t>Кросафчег</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 43 сек.</t>
+    <t>3 ч. 02 мин. 43 сек.</t>
   </si>
   <si>
     <t>Schoolboy</t>
   </si>
   <si>
-    <t>3 ч. 16 мин. 6 сек.</t>
+    <t>3 ч. 16 мин. 06 сек.</t>
   </si>
   <si>
     <t>Tahion</t>
@@ -2906,7 +2906,7 @@
     <t>SEFER</t>
   </si>
   <si>
-    <t>5 ч. 5 мин. 55 сек.</t>
+    <t>5 ч. 05 мин. 55 сек.</t>
   </si>
   <si>
     <t>Александр88</t>
@@ -2951,13 +2951,13 @@
     <t>Garmonica</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 38 сек.</t>
+    <t>2 ч. 04 мин. 38 сек.</t>
   </si>
   <si>
     <t>петрови4</t>
   </si>
   <si>
-    <t>2 ч. 25 мин. 8 сек.</t>
+    <t>2 ч. 25 мин. 08 сек.</t>
   </si>
   <si>
     <t>81243534355</t>
@@ -2969,13 +2969,13 @@
     <t>x1shn1k</t>
   </si>
   <si>
-    <t>12 ч. 55 мин. 5 сек.</t>
+    <t>12 ч. 55 мин. 05 сек.</t>
   </si>
   <si>
     <t>Dencom</t>
   </si>
   <si>
-    <t>12 ч. 52 мин. 9 сек.</t>
+    <t>12 ч. 52 мин. 09 сек.</t>
   </si>
   <si>
     <t>415–421</t>
@@ -2996,7 +2996,7 @@
     <t>DOGS</t>
   </si>
   <si>
-    <t>5 ч. 9 мин. 53 сек.</t>
+    <t>5 ч. 09 мин. 53 сек.</t>
   </si>
   <si>
     <t>siplo</t>
@@ -3020,7 +3020,7 @@
     <t>UPO</t>
   </si>
   <si>
-    <t>17 ч. 1 мин. 45 сек.</t>
+    <t>17 ч. 01 мин. 45 сек.</t>
   </si>
   <si>
     <t>422–425</t>
@@ -3029,13 +3029,13 @@
     <t>ASplayer9119</t>
   </si>
   <si>
-    <t>1 ч. 56 мин. 4 сек.</t>
+    <t>1 ч. 56 мин. 04 сек.</t>
   </si>
   <si>
     <t>Дядя_Грга</t>
   </si>
   <si>
-    <t>1 ч. 45 мин. 8 сек.</t>
+    <t>1 ч. 45 мин. 08 сек.</t>
   </si>
   <si>
     <t>Analgin7</t>
@@ -3056,13 +3056,13 @@
     <t>Sketerok777</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 9 сек.</t>
+    <t>2 ч. 01 мин. 09 сек.</t>
   </si>
   <si>
     <t>GGHFGL</t>
   </si>
   <si>
-    <t>1 ч. 55 мин. 2 сек.</t>
+    <t>1 ч. 55 мин. 02 сек.</t>
   </si>
   <si>
     <t>darklord200</t>
@@ -3080,7 +3080,7 @@
     <t>Vanchez</t>
   </si>
   <si>
-    <t>13 ч. 44 мин. 4 сек.</t>
+    <t>13 ч. 44 мин. 04 сек.</t>
   </si>
   <si>
     <t>Victor_storm</t>
@@ -3119,13 +3119,13 @@
     <t>Meteora277</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 22 сек.</t>
+    <t>2 ч. 03 мин. 22 сек.</t>
   </si>
   <si>
     <t>buzzy</t>
   </si>
   <si>
-    <t>4 ч. 12 мин. 6 сек.</t>
+    <t>4 ч. 12 мин. 06 сек.</t>
   </si>
   <si>
     <t>Yanci</t>
@@ -3143,7 +3143,7 @@
     <t>oyasumi</t>
   </si>
   <si>
-    <t>6 ч. 1 мин. 36 сек.</t>
+    <t>6 ч. 01 мин. 36 сек.</t>
   </si>
   <si>
     <t>puchkarito</t>
@@ -3224,7 +3224,7 @@
     <t>chat</t>
   </si>
   <si>
-    <t>41 ч. 41 мин. 9 сек.</t>
+    <t>41 ч. 41 мин. 09 сек.</t>
   </si>
   <si>
     <t>454–459</t>
@@ -3239,7 +3239,7 @@
     <t>klap</t>
   </si>
   <si>
-    <t>1 ч. 47 мин. 2 сек.</t>
+    <t>1 ч. 47 мин. 02 сек.</t>
   </si>
   <si>
     <t>da_Vinch</t>
@@ -3263,7 +3263,7 @@
     <t>carmero</t>
   </si>
   <si>
-    <t>31 ч. 26 мин. 8 сек.</t>
+    <t>31 ч. 26 мин. 08 сек.</t>
   </si>
   <si>
     <t>460–461</t>
@@ -3329,7 +3329,7 @@
     <t>Кадий</t>
   </si>
   <si>
-    <t>4 ч. 2 мин. 51 сек.</t>
+    <t>4 ч. 02 мин. 51 сек.</t>
   </si>
   <si>
     <t>lvoeu</t>
@@ -3350,7 +3350,7 @@
     <t>Racer729</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 57 сек.</t>
+    <t>3 ч. 09 мин. 57 сек.</t>
   </si>
   <si>
     <t>Avensis</t>
@@ -3377,7 +3377,7 @@
     <t>sanich123</t>
   </si>
   <si>
-    <t>1 ч. 19 мин. 6 сек.</t>
+    <t>1 ч. 19 мин. 06 сек.</t>
   </si>
   <si>
     <t>_Storm_</t>
@@ -3410,7 +3410,7 @@
     <t>Etoneja</t>
   </si>
   <si>
-    <t>2 ч. 40 мин. 1 сек.</t>
+    <t>2 ч. 40 мин. 01 сек.</t>
   </si>
   <si>
     <t>Noob777</t>
@@ -3422,13 +3422,13 @@
     <t>_nikki_</t>
   </si>
   <si>
-    <t>14 ч. 8 мин. 55 сек.</t>
+    <t>14 ч. 08 мин. 55 сек.</t>
   </si>
   <si>
     <t>Easy88</t>
   </si>
   <si>
-    <t>21 ч. 9 мин. 52 сек.</t>
+    <t>21 ч. 09 мин. 52 сек.</t>
   </si>
   <si>
     <t>485–494</t>
@@ -3485,7 +3485,7 @@
     <t>---SUSanin---</t>
   </si>
   <si>
-    <t>48 ч. 27 мин. 0 сек.</t>
+    <t>48 ч. 27 мин. 00 сек.</t>
   </si>
   <si>
     <t>Drumerspb</t>
@@ -3566,7 +3566,7 @@
     <t>jamm</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 58 сек.</t>
+    <t>1 ч. 01 мин. 58 сек.</t>
   </si>
   <si>
     <t>Vesna2011</t>
@@ -3617,13 +3617,13 @@
     <t>Journeyman</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 10 сек.</t>
+    <t>2 ч. 06 мин. 10 сек.</t>
   </si>
   <si>
     <t>name1</t>
   </si>
   <si>
-    <t>13 ч. 13 мин. 7 сек.</t>
+    <t>13 ч. 13 мин. 07 сек.</t>
   </si>
   <si>
     <t>515–519</t>
@@ -3638,7 +3638,7 @@
     <t>Перфил</t>
   </si>
   <si>
-    <t>1 ч. 14 мин. 1 сек.</t>
+    <t>1 ч. 14 мин. 01 сек.</t>
   </si>
   <si>
     <t>apotap2</t>
@@ -3656,7 +3656,7 @@
     <t>Сима44</t>
   </si>
   <si>
-    <t>363 ч. 7 мин. 28 сек.</t>
+    <t>363 ч. 07 мин. 28 сек.</t>
   </si>
   <si>
     <t>520–528</t>
@@ -3665,7 +3665,7 @@
     <t>не_супермен</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 40 сек.</t>
+    <t>1 ч. 06 мин. 40 сек.</t>
   </si>
   <si>
     <t>Святсвят</t>
@@ -3713,7 +3713,7 @@
     <t>РуссоТуристо</t>
   </si>
   <si>
-    <t>26 ч. 54 мин. 1 сек.</t>
+    <t>26 ч. 54 мин. 01 сек.</t>
   </si>
   <si>
     <t>529–532</t>
@@ -3722,7 +3722,7 @@
     <t>Demien89</t>
   </si>
   <si>
-    <t>4 ч. 48 мин. 7 сек.</t>
+    <t>4 ч. 48 мин. 07 сек.</t>
   </si>
   <si>
     <t>TRIANON</t>
@@ -3749,7 +3749,7 @@
     <t>novkostya</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 56 сек.</t>
+    <t>2 ч. 01 мин. 56 сек.</t>
   </si>
   <si>
     <t>Efremov</t>
@@ -3809,7 +3809,7 @@
     <t>sakh10</t>
   </si>
   <si>
-    <t>147 ч. 8 мин. 19 сек.</t>
+    <t>147 ч. 08 мин. 19 сек.</t>
   </si>
   <si>
     <t>544–552</t>
@@ -3818,7 +3818,7 @@
     <t>OverPower</t>
   </si>
   <si>
-    <t>3 ч. 28 мин. 0 сек.</t>
+    <t>3 ч. 28 мин. 00 сек.</t>
   </si>
   <si>
     <t>KamaZ</t>
@@ -3854,13 +3854,13 @@
     <t>KuzYur</t>
   </si>
   <si>
-    <t>9 ч. 26 мин. 4 сек.</t>
+    <t>9 ч. 26 мин. 04 сек.</t>
   </si>
   <si>
     <t>Wassjaja</t>
   </si>
   <si>
-    <t>10 ч. 7 мин. 42 сек.</t>
+    <t>10 ч. 07 мин. 42 сек.</t>
   </si>
   <si>
     <t>Leolex</t>
@@ -3899,7 +3899,7 @@
     <t>Tarantul</t>
   </si>
   <si>
-    <t>2 ч. 54 мин. 7 сек.</t>
+    <t>2 ч. 54 мин. 07 сек.</t>
   </si>
   <si>
     <t>-Kanda-sama-</t>
@@ -3911,13 +3911,13 @@
     <t>nama</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 34 сек.</t>
+    <t>3 ч. 01 мин. 34 сек.</t>
   </si>
   <si>
     <t>CaTuP</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 6 сек.</t>
+    <t>5 ч. 07 мин. 06 сек.</t>
   </si>
   <si>
     <t>Asselen</t>
@@ -3935,7 +3935,7 @@
     <t>prostoe</t>
   </si>
   <si>
-    <t>36 ч. 24 мин. 7 сек.</t>
+    <t>36 ч. 24 мин. 07 сек.</t>
   </si>
   <si>
     <t>564–574</t>
@@ -4031,7 +4031,7 @@
     <t>espresso</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 59 сек.</t>
+    <t>2 ч. 07 мин. 59 сек.</t>
   </si>
   <si>
     <t>Dzenly</t>
@@ -4064,7 +4064,7 @@
     <t>Divin1ty</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 38 сек.</t>
+    <t>1 ч. 06 мин. 38 сек.</t>
   </si>
   <si>
     <t>Вова_10</t>
@@ -4094,7 +4094,7 @@
     <t>Ilya666</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 55 сек.</t>
+    <t>4 ч. 09 мин. 55 сек.</t>
   </si>
   <si>
     <t>Гавриил</t>
@@ -4118,7 +4118,7 @@
     <t>Morbid_Angel</t>
   </si>
   <si>
-    <t>6 ч. 1 мин. 46 сек.</t>
+    <t>6 ч. 01 мин. 46 сек.</t>
   </si>
   <si>
     <t>RODIS</t>
@@ -4157,13 +4157,13 @@
     <t>wheeeL</t>
   </si>
   <si>
-    <t>10 ч. 3 мин. 44 сек.</t>
+    <t>10 ч. 03 мин. 44 сек.</t>
   </si>
   <si>
     <t>Fostal</t>
   </si>
   <si>
-    <t>24 ч. 21 мин. 3 сек.</t>
+    <t>24 ч. 21 мин. 03 сек.</t>
   </si>
   <si>
     <t>600–612</t>
@@ -4208,13 +4208,13 @@
     <t>pewpewpow</t>
   </si>
   <si>
-    <t>4 ч. 35 мин. 8 сек.</t>
+    <t>4 ч. 35 мин. 08 сек.</t>
   </si>
   <si>
     <t>iOlga</t>
   </si>
   <si>
-    <t>7 ч. 15 мин. 2 сек.</t>
+    <t>7 ч. 15 мин. 02 сек.</t>
   </si>
   <si>
     <t>Ethicon</t>
@@ -4232,13 +4232,13 @@
     <t>tfn3k</t>
   </si>
   <si>
-    <t>18 ч. 3 мин. 25 сек.</t>
+    <t>18 ч. 03 мин. 25 сек.</t>
   </si>
   <si>
     <t>DenL</t>
   </si>
   <si>
-    <t>30 ч. 52 мин. 0 сек.</t>
+    <t>30 ч. 52 мин. 00 сек.</t>
   </si>
   <si>
     <t>expollux</t>
@@ -4253,19 +4253,19 @@
     <t>damir27</t>
   </si>
   <si>
-    <t>1 ч. 36 мин. 6 сек.</t>
+    <t>1 ч. 36 мин. 06 сек.</t>
   </si>
   <si>
     <t>Хаотический</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 25 сек.</t>
+    <t>4 ч. 09 мин. 25 сек.</t>
   </si>
   <si>
     <t>boOm</t>
   </si>
   <si>
-    <t>10 ч. 5 мин. 41 сек.</t>
+    <t>10 ч. 05 мин. 41 сек.</t>
   </si>
   <si>
     <t>strengthofgod</t>
@@ -4286,7 +4286,7 @@
     <t>Enrage</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 29 сек.</t>
+    <t>1 ч. 07 мин. 29 сек.</t>
   </si>
   <si>
     <t>Romik41xt</t>
@@ -4304,7 +4304,7 @@
     <t>neus</t>
   </si>
   <si>
-    <t>5 ч. 8 мин. 11 сек.</t>
+    <t>5 ч. 08 мин. 11 сек.</t>
   </si>
   <si>
     <t>Lelick</t>
@@ -4322,7 +4322,7 @@
     <t>Супербармен</t>
   </si>
   <si>
-    <t>8 ч. 43 мин. 0 сек.</t>
+    <t>8 ч. 43 мин. 00 сек.</t>
   </si>
   <si>
     <t>ofirinka</t>
@@ -4343,13 +4343,13 @@
     <t>Бросай_курить</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 40 сек.</t>
+    <t>2 ч. 00 мин. 40 сек.</t>
   </si>
   <si>
     <t>_Snezhinka_</t>
   </si>
   <si>
-    <t>3 ч. 21 мин. 2 сек.</t>
+    <t>3 ч. 21 мин. 02 сек.</t>
   </si>
   <si>
     <t>Phobos666</t>
@@ -4379,7 +4379,7 @@
     <t>Kot_letun</t>
   </si>
   <si>
-    <t>11 ч. 5 мин. 50 сек.</t>
+    <t>11 ч. 05 мин. 50 сек.</t>
   </si>
   <si>
     <t>Antonio_Zts</t>
@@ -4400,13 +4400,13 @@
     <t>Питер</t>
   </si>
   <si>
-    <t>1 ч. 20 мин. 0 сек.</t>
+    <t>1 ч. 20 мин. 00 сек.</t>
   </si>
   <si>
     <t>lornashore</t>
   </si>
   <si>
-    <t>2 ч. 29 мин. 0 сек.</t>
+    <t>2 ч. 29 мин. 00 сек.</t>
   </si>
   <si>
     <t>FAUst_</t>
@@ -4418,13 +4418,13 @@
     <t>Jon31</t>
   </si>
   <si>
-    <t>5 ч. 39 мин. 1 сек.</t>
+    <t>5 ч. 39 мин. 01 сек.</t>
   </si>
   <si>
     <t>ябохтыздох</t>
   </si>
   <si>
-    <t>7 ч. 35 мин. 5 сек.</t>
+    <t>7 ч. 35 мин. 05 сек.</t>
   </si>
   <si>
     <t>andrew-fam</t>
@@ -4436,7 +4436,7 @@
     <t>Regent</t>
   </si>
   <si>
-    <t>8 ч. 3 мин. 27 сек.</t>
+    <t>8 ч. 03 мин. 27 сек.</t>
   </si>
   <si>
     <t>Наконец-то</t>
@@ -4469,13 +4469,13 @@
     <t>mmque</t>
   </si>
   <si>
-    <t>1 ч. 53 мин. 8 сек.</t>
+    <t>1 ч. 53 мин. 08 сек.</t>
   </si>
   <si>
     <t>KiD2</t>
   </si>
   <si>
-    <t>3 ч. 20 мин. 4 сек.</t>
+    <t>3 ч. 20 мин. 04 сек.</t>
   </si>
   <si>
     <t>Realshi</t>
@@ -4487,7 +4487,7 @@
     <t>and_ReY_88</t>
   </si>
   <si>
-    <t>9 ч. 14 мин. 6 сек.</t>
+    <t>9 ч. 14 мин. 06 сек.</t>
   </si>
   <si>
     <t>Грызун</t>
@@ -4502,7 +4502,7 @@
     <t>Мятный_заход</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 21 сек.</t>
+    <t>1 ч. 03 мин. 21 сек.</t>
   </si>
   <si>
     <t>oleggo</t>
@@ -4553,7 +4553,7 @@
     <t>k_e_n_t_a_v_r</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 45 сек.</t>
+    <t>1 ч. 09 мин. 45 сек.</t>
   </si>
   <si>
     <t>Strider55</t>
@@ -4565,19 +4565,19 @@
     <t>19rus</t>
   </si>
   <si>
-    <t>1 ч. 40 мин. 1 сек.</t>
+    <t>1 ч. 40 мин. 01 сек.</t>
   </si>
   <si>
     <t>Sergunya87</t>
   </si>
   <si>
-    <t>1 ч. 46 мин. 4 сек.</t>
+    <t>1 ч. 46 мин. 04 сек.</t>
   </si>
   <si>
     <t>V_Alexey</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 19 сек.</t>
+    <t>2 ч. 05 мин. 19 сек.</t>
   </si>
   <si>
     <t>3a17ad10</t>
@@ -4595,7 +4595,7 @@
     <t>classifiedman</t>
   </si>
   <si>
-    <t>5 ч. 45 мин. 9 сек.</t>
+    <t>5 ч. 45 мин. 09 сек.</t>
   </si>
   <si>
     <t>29-FATTEL-29</t>
@@ -4607,7 +4607,7 @@
     <t>Азиат</t>
   </si>
   <si>
-    <t>24 ч. 21 мин. 5 сек.</t>
+    <t>24 ч. 21 мин. 05 сек.</t>
   </si>
   <si>
     <t>670–675</t>
@@ -4616,7 +4616,7 @@
     <t>Топтыгин</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 29 сек.</t>
+    <t>2 ч. 08 мин. 29 сек.</t>
   </si>
   <si>
     <t>Hainee-tyan</t>
@@ -4625,13 +4625,13 @@
     <t>Гравий</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 11 сек.</t>
+    <t>4 ч. 05 мин. 11 сек.</t>
   </si>
   <si>
     <t>Smuglik</t>
   </si>
   <si>
-    <t>11 ч. 23 мин. 5 сек.</t>
+    <t>11 ч. 23 мин. 05 сек.</t>
   </si>
   <si>
     <t>gosknyaz</t>
@@ -4664,7 +4664,7 @@
     <t>lafit</t>
   </si>
   <si>
-    <t>5 ч. 21 мин. 3 сек.</t>
+    <t>5 ч. 21 мин. 03 сек.</t>
   </si>
   <si>
     <t>Telefunkenist</t>
@@ -4676,13 +4676,13 @@
     <t>ржавый_камаз</t>
   </si>
   <si>
-    <t>10 ч. 5 мин. 46 сек.</t>
+    <t>10 ч. 05 мин. 46 сек.</t>
   </si>
   <si>
     <t>BeTka</t>
   </si>
   <si>
-    <t>11 ч. 4 мин. 19 сек.</t>
+    <t>11 ч. 04 мин. 19 сек.</t>
   </si>
   <si>
     <t>awefork</t>
@@ -4694,19 +4694,19 @@
     <t>_sorriso_</t>
   </si>
   <si>
-    <t>21 ч. 26 мин. 2 сек.</t>
+    <t>21 ч. 26 мин. 02 сек.</t>
   </si>
   <si>
     <t>Никсон</t>
   </si>
   <si>
-    <t>31 ч. 4 мин. 11 сек.</t>
+    <t>31 ч. 04 мин. 11 сек.</t>
   </si>
   <si>
     <t>Катушка</t>
   </si>
   <si>
-    <t>60 ч. 29 мин. 2 сек.</t>
+    <t>60 ч. 29 мин. 02 сек.</t>
   </si>
   <si>
     <t>686–695</t>
@@ -4715,7 +4715,7 @@
     <t>kostyagordyaev</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 10 сек.</t>
+    <t>2 ч. 04 мин. 10 сек.</t>
   </si>
   <si>
     <t>Doctorisimus</t>
@@ -4784,7 +4784,7 @@
     <t>Порядок</t>
   </si>
   <si>
-    <t>2 ч. 10 мин. 6 сек.</t>
+    <t>2 ч. 10 мин. 06 сек.</t>
   </si>
   <si>
     <t>Gbit</t>
@@ -4811,13 +4811,13 @@
     <t>spawn_once</t>
   </si>
   <si>
-    <t>1 ч. 15 мин. 0 сек.</t>
+    <t>1 ч. 15 мин. 00 сек.</t>
   </si>
   <si>
     <t>Тираэль</t>
   </si>
   <si>
-    <t>1 ч. 14 мин. 4 сек.</t>
+    <t>1 ч. 14 мин. 04 сек.</t>
   </si>
   <si>
     <t>Andrey999K</t>
@@ -4826,7 +4826,7 @@
     <t>bolgarinpavel</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 17 сек.</t>
+    <t>2 ч. 05 мин. 17 сек.</t>
   </si>
   <si>
     <t>Krokodil</t>
@@ -4856,7 +4856,7 @@
     <t>-MONOLITH</t>
   </si>
   <si>
-    <t>5 ч. 25 мин. 5 сек.</t>
+    <t>5 ч. 25 мин. 05 сек.</t>
   </si>
   <si>
     <t>ProctoRusik</t>
@@ -4877,7 +4877,7 @@
     <t>Silly_Sergio</t>
   </si>
   <si>
-    <t>1 ч. 12 мин. 6 сек.</t>
+    <t>1 ч. 12 мин. 06 сек.</t>
   </si>
   <si>
     <t>ленивец</t>
@@ -4895,7 +4895,7 @@
     <t>batton</t>
   </si>
   <si>
-    <t>5 ч. 41 мин. 2 сек.</t>
+    <t>5 ч. 41 мин. 02 сек.</t>
   </si>
   <si>
     <t>Квазар</t>
@@ -4913,7 +4913,7 @@
     <t>Игорка</t>
   </si>
   <si>
-    <t>24 ч. 16 мин. 4 сек.</t>
+    <t>24 ч. 16 мин. 04 сек.</t>
   </si>
   <si>
     <t>CBETJIAHA</t>
@@ -4937,13 +4937,13 @@
     <t>Пробудитесь_же</t>
   </si>
   <si>
-    <t>1 ч. 14 мин. 3 сек.</t>
+    <t>1 ч. 14 мин. 03 сек.</t>
   </si>
   <si>
     <t>smertsgranatoi</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 0 сек.</t>
+    <t>2 ч. 07 мин. 00 сек.</t>
   </si>
   <si>
     <t>MMMAAANNN</t>
@@ -4961,7 +4961,7 @@
     <t>gaintsev</t>
   </si>
   <si>
-    <t>3 ч. 56 мин. 9 сек.</t>
+    <t>3 ч. 56 мин. 09 сек.</t>
   </si>
   <si>
     <t>Bimbula</t>
@@ -4985,7 +4985,7 @@
     <t>JIANa</t>
   </si>
   <si>
-    <t>8 ч. 44 мин. 0 сек.</t>
+    <t>8 ч. 44 мин. 00 сек.</t>
   </si>
   <si>
     <t>denisov7</t>
@@ -5015,7 +5015,7 @@
     <t>HellBoy33</t>
   </si>
   <si>
-    <t>3 ч. 35 мин. 6 сек.</t>
+    <t>3 ч. 35 мин. 06 сек.</t>
   </si>
   <si>
     <t>Ездун</t>
@@ -5039,7 +5039,7 @@
     <t>oves</t>
   </si>
   <si>
-    <t>6 ч. 29 мин. 7 сек.</t>
+    <t>6 ч. 29 мин. 07 сек.</t>
   </si>
   <si>
     <t>-Advanced-</t>
@@ -5084,7 +5084,7 @@
     <t>dysphemia</t>
   </si>
   <si>
-    <t>1 ч. 13 мин. 7 сек.</t>
+    <t>1 ч. 13 мин. 07 сек.</t>
   </si>
   <si>
     <t>haos2100</t>
@@ -5099,7 +5099,7 @@
     <t>RombOs</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 36 сек.</t>
+    <t>2 ч. 06 мин. 36 сек.</t>
   </si>
   <si>
     <t>Drinker5</t>
@@ -5117,13 +5117,13 @@
     <t>tanf93</t>
   </si>
   <si>
-    <t>12 ч. 5 мин. 9 сек.</t>
+    <t>12 ч. 05 мин. 09 сек.</t>
   </si>
   <si>
     <t>velsher123</t>
   </si>
   <si>
-    <t>39 ч. 22 мин. 7 сек.</t>
+    <t>39 ч. 22 мин. 07 сек.</t>
   </si>
   <si>
     <t>754–760</t>
@@ -5156,13 +5156,13 @@
     <t>mishlen79</t>
   </si>
   <si>
-    <t>5 ч. 1 мин. 32 сек.</t>
+    <t>5 ч. 01 мин. 32 сек.</t>
   </si>
   <si>
     <t>olaolg</t>
   </si>
   <si>
-    <t>13 ч. 8 мин. 39 сек.</t>
+    <t>13 ч. 08 мин. 39 сек.</t>
   </si>
   <si>
     <t>Аурика</t>
@@ -5204,19 +5204,19 @@
     <t>kageneko</t>
   </si>
   <si>
-    <t>16 ч. 2 мин. 17 сек.</t>
+    <t>16 ч. 02 мин. 17 сек.</t>
   </si>
   <si>
     <t>DietrichDeurt</t>
   </si>
   <si>
-    <t>23 ч. 2 мин. 1 сек.</t>
+    <t>23 ч. 02 мин. 01 сек.</t>
   </si>
   <si>
     <t>отлезь_вова</t>
   </si>
   <si>
-    <t>61 ч. 45 мин. 3 сек.</t>
+    <t>61 ч. 45 мин. 03 сек.</t>
   </si>
   <si>
     <t>769–778</t>
@@ -5225,7 +5225,7 @@
     <t>Андрейка</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 53 сек.</t>
+    <t>1 ч. 06 мин. 53 сек.</t>
   </si>
   <si>
     <t>pairbit</t>
@@ -5237,13 +5237,13 @@
     <t>NinaVladi</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 34 сек.</t>
+    <t>3 ч. 09 мин. 34 сек.</t>
   </si>
   <si>
     <t>kryto</t>
   </si>
   <si>
-    <t>4 ч. 49 мин. 4 сек.</t>
+    <t>4 ч. 49 мин. 04 сек.</t>
   </si>
   <si>
     <t>inobject</t>
@@ -5273,7 +5273,7 @@
     <t>wizmon</t>
   </si>
   <si>
-    <t>20 ч. 4 мин. 9 сек.</t>
+    <t>20 ч. 04 мин. 09 сек.</t>
   </si>
   <si>
     <t>ILYA_MAMONOV</t>
@@ -5312,7 +5312,7 @@
     <t>AspoD</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 53 сек.</t>
+    <t>3 ч. 07 мин. 53 сек.</t>
   </si>
   <si>
     <t>dbz</t>
@@ -5330,13 +5330,13 @@
     <t>grevgen</t>
   </si>
   <si>
-    <t>9 ч. 1 мин. 20 сек.</t>
+    <t>9 ч. 01 мин. 20 сек.</t>
   </si>
   <si>
     <t>Insane_Grinder</t>
   </si>
   <si>
-    <t>10 ч. 43 мин. 1 сек.</t>
+    <t>10 ч. 43 мин. 01 сек.</t>
   </si>
   <si>
     <t>virones</t>
@@ -5369,7 +5369,7 @@
     <t>arch_commander</t>
   </si>
   <si>
-    <t>6 ч. 5 мин. 12 сек.</t>
+    <t>6 ч. 05 мин. 12 сек.</t>
   </si>
   <si>
     <t>Верховцев</t>
@@ -5423,7 +5423,7 @@
     <t>vido88</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 44 сек.</t>
+    <t>6 ч. 09 мин. 44 сек.</t>
   </si>
   <si>
     <t>kelkei</t>
@@ -5462,7 +5462,7 @@
     <t>ajrcbp</t>
   </si>
   <si>
-    <t>1 ч. 24 мин. 4 сек.</t>
+    <t>1 ч. 24 мин. 04 сек.</t>
   </si>
   <si>
     <t>ail</t>
@@ -5480,7 +5480,7 @@
     <t>Zoomskij</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 36 сек.</t>
+    <t>3 ч. 08 мин. 36 сек.</t>
   </si>
   <si>
     <t>Командир</t>
@@ -5492,13 +5492,13 @@
     <t>freia</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 10 сек.</t>
+    <t>4 ч. 01 мин. 10 сек.</t>
   </si>
   <si>
     <t>Нур-Султан</t>
   </si>
   <si>
-    <t>4 ч. 56 мин. 5 сек.</t>
+    <t>4 ч. 56 мин. 05 сек.</t>
   </si>
   <si>
     <t>Самаэль</t>
@@ -5510,7 +5510,7 @@
     <t>Gosxo_Ruza</t>
   </si>
   <si>
-    <t>22 ч. 8 мин. 3 сек.</t>
+    <t>22 ч. 08 мин. 03 сек.</t>
   </si>
   <si>
     <t>816–825</t>
@@ -5525,7 +5525,7 @@
     <t>MirZz</t>
   </si>
   <si>
-    <t>1 ч. 25 мин. 7 сек.</t>
+    <t>1 ч. 25 мин. 07 сек.</t>
   </si>
   <si>
     <t>a_shir</t>
@@ -5594,7 +5594,7 @@
     <t>TwinDima</t>
   </si>
   <si>
-    <t>1 ч. 59 мин. 9 сек.</t>
+    <t>1 ч. 59 мин. 09 сек.</t>
   </si>
   <si>
     <t>Newton</t>
@@ -5618,7 +5618,7 @@
     <t>Squirr</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 6 сек.</t>
+    <t>4 ч. 09 мин. 06 сек.</t>
   </si>
   <si>
     <t>LadyIrina</t>
@@ -5657,7 +5657,7 @@
     <t>Chuchpek</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 29 сек.</t>
+    <t>1 ч. 08 мин. 29 сек.</t>
   </si>
   <si>
     <t>molot-perm</t>
@@ -5669,7 +5669,7 @@
     <t>SemRunner</t>
   </si>
   <si>
-    <t>1 ч. 43 мин. 5 сек.</t>
+    <t>1 ч. 43 мин. 05 сек.</t>
   </si>
   <si>
     <t>Ricidiv</t>
@@ -5726,7 +5726,7 @@
     <t>lana-banana</t>
   </si>
   <si>
-    <t>2 ч. 32 мин. 3 сек.</t>
+    <t>2 ч. 32 мин. 03 сек.</t>
   </si>
   <si>
     <t>Zhastina</t>
@@ -5771,7 +5771,7 @@
     <t>Кусака</t>
   </si>
   <si>
-    <t>2 ч. 11 мин. 3 сек.</t>
+    <t>2 ч. 11 мин. 03 сек.</t>
   </si>
   <si>
     <t>VylSkloi</t>
@@ -5858,13 +5858,13 @@
     <t>asergi</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 57 сек.</t>
+    <t>6 ч. 00 мин. 57 сек.</t>
   </si>
   <si>
     <t>suenot</t>
   </si>
   <si>
-    <t>6 ч. 8 мин. 47 сек.</t>
+    <t>6 ч. 08 мин. 47 сек.</t>
   </si>
   <si>
     <t>motivation</t>
@@ -5897,13 +5897,13 @@
     <t>_aggel</t>
   </si>
   <si>
-    <t>1 ч. 22 мин. 5 сек.</t>
+    <t>1 ч. 22 мин. 05 сек.</t>
   </si>
   <si>
     <t>cal-lek</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 31 сек.</t>
+    <t>2 ч. 06 мин. 31 сек.</t>
   </si>
   <si>
     <t>K530i</t>
@@ -5942,7 +5942,7 @@
     <t>selunik</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 56 сек.</t>
+    <t>2 ч. 02 мин. 56 сек.</t>
   </si>
   <si>
     <t>Мусяша</t>
@@ -5966,19 +5966,19 @@
     <t>Gosick</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 59 сек.</t>
+    <t>6 ч. 07 мин. 59 сек.</t>
   </si>
   <si>
     <t>drDr2</t>
   </si>
   <si>
-    <t>7 ч. 6 мин. 3 сек.</t>
+    <t>7 ч. 06 мин. 03 сек.</t>
   </si>
   <si>
     <t>Luxmaster</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 42 сек.</t>
+    <t>9 ч. 03 мин. 42 сек.</t>
   </si>
   <si>
     <t>С_УБОЙНОГО</t>
@@ -6005,7 +6005,7 @@
     <t>Bax</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 5 сек.</t>
+    <t>2 ч. 04 мин. 05 сек.</t>
   </si>
   <si>
     <t>Ludimagister</t>
@@ -6056,13 +6056,13 @@
     <t>Giwwi</t>
   </si>
   <si>
-    <t>5 ч. 3 мин. 24 сек.</t>
+    <t>5 ч. 03 мин. 24 сек.</t>
   </si>
   <si>
     <t>Unwear</t>
   </si>
   <si>
-    <t>5 ч. 52 мин. 4 сек.</t>
+    <t>5 ч. 52 мин. 04 сек.</t>
   </si>
   <si>
     <t>Сцобако</t>
@@ -6074,7 +6074,7 @@
     <t>лаоцзы</t>
   </si>
   <si>
-    <t>28 ч. 32 мин. 6 сек.</t>
+    <t>28 ч. 32 мин. 06 сек.</t>
   </si>
   <si>
     <t>905–913</t>
@@ -6131,7 +6131,7 @@
     <t>инфо-пчелы</t>
   </si>
   <si>
-    <t>12 ч. 2 мин. 53 сек.</t>
+    <t>12 ч. 02 мин. 53 сек.</t>
   </si>
   <si>
     <t>914–928</t>
@@ -6143,7 +6143,7 @@
     <t>Iskariot</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 43 сек.</t>
+    <t>2 ч. 09 мин. 43 сек.</t>
   </si>
   <si>
     <t>mountaineer</t>
@@ -6170,7 +6170,7 @@
     <t>Prodrive</t>
   </si>
   <si>
-    <t>3 ч. 31 мин. 0 сек.</t>
+    <t>3 ч. 31 мин. 00 сек.</t>
   </si>
   <si>
     <t>ce_merri</t>
@@ -6188,7 +6188,7 @@
     <t>HappyHardcore</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 13 сек.</t>
+    <t>5 ч. 07 мин. 13 сек.</t>
   </si>
   <si>
     <t>Mayflower</t>
@@ -6266,13 +6266,13 @@
     <t>vvoland</t>
   </si>
   <si>
-    <t>9 ч. 2 мин. 17 сек.</t>
+    <t>9 ч. 02 мин. 17 сек.</t>
   </si>
   <si>
     <t>slaker22</t>
   </si>
   <si>
-    <t>13 ч. 9 мин. 16 сек.</t>
+    <t>13 ч. 09 мин. 16 сек.</t>
   </si>
   <si>
     <t>opisthoproctus</t>
@@ -6284,7 +6284,7 @@
     <t>NDancer</t>
   </si>
   <si>
-    <t>17 ч. 1 мин. 15 сек.</t>
+    <t>17 ч. 01 мин. 15 сек.</t>
   </si>
   <si>
     <t>940–954</t>
@@ -6365,7 +6365,7 @@
     <t>вазовик</t>
   </si>
   <si>
-    <t>9 ч. 26 мин. 2 сек.</t>
+    <t>9 ч. 26 мин. 02 сек.</t>
   </si>
   <si>
     <t>Boolbek</t>
@@ -6392,7 +6392,7 @@
     <t>JPM</t>
   </si>
   <si>
-    <t>1 ч. 22 мин. 1 сек.</t>
+    <t>1 ч. 22 мин. 01 сек.</t>
   </si>
   <si>
     <t>RaDLI</t>
@@ -6416,7 +6416,7 @@
     <t>TwinDenis</t>
   </si>
   <si>
-    <t>2 ч. 57 мин. 8 сек.</t>
+    <t>2 ч. 57 мин. 08 сек.</t>
   </si>
   <si>
     <t>Дима_Катран</t>
@@ -6434,19 +6434,19 @@
     <t>menoxe</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 45 сек.</t>
+    <t>5 ч. 07 мин. 45 сек.</t>
   </si>
   <si>
     <t>lampard108</t>
   </si>
   <si>
-    <t>4 ч. 41 мин. 2 сек.</t>
+    <t>4 ч. 41 мин. 02 сек.</t>
   </si>
   <si>
     <t>Lyoks</t>
   </si>
   <si>
-    <t>7 ч. 8 мин. 25 сек.</t>
+    <t>7 ч. 08 мин. 25 сек.</t>
   </si>
   <si>
     <t>doklls</t>
@@ -6479,13 +6479,13 @@
     <t>Клавишник</t>
   </si>
   <si>
-    <t>2 ч. 58 мин. 9 сек.</t>
+    <t>2 ч. 58 мин. 09 сек.</t>
   </si>
   <si>
     <t>Milker</t>
   </si>
   <si>
-    <t>2 ч. 18 мин. 2 сек.</t>
+    <t>2 ч. 18 мин. 02 сек.</t>
   </si>
   <si>
     <t>Тоха</t>
@@ -6515,7 +6515,7 @@
     <t>Миша-Буденновск</t>
   </si>
   <si>
-    <t>14 ч. 58 мин. 8 сек.</t>
+    <t>14 ч. 58 мин. 08 сек.</t>
   </si>
   <si>
     <t>Нови4ок76</t>
@@ -6527,7 +6527,7 @@
     <t>Чумаходка</t>
   </si>
   <si>
-    <t>54 ч. 1 мин. 58 сек.</t>
+    <t>54 ч. 01 мин. 58 сек.</t>
   </si>
   <si>
     <t>979–994</t>
@@ -6548,25 +6548,25 @@
     <t>Dzihiko</t>
   </si>
   <si>
-    <t>1 ч. 29 мин. 2 сек.</t>
+    <t>1 ч. 29 мин. 02 сек.</t>
   </si>
   <si>
     <t>hoha-</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 58 сек.</t>
+    <t>2 ч. 06 мин. 58 сек.</t>
   </si>
   <si>
     <t>ryx</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 25 сек.</t>
+    <t>2 ч. 08 мин. 25 сек.</t>
   </si>
   <si>
     <t>Kyler33</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 38 сек.</t>
+    <t>2 ч. 09 мин. 38 сек.</t>
   </si>
   <si>
     <t>genie_1855</t>
@@ -6578,7 +6578,7 @@
     <t>savaggge</t>
   </si>
   <si>
-    <t>2 ч. 41 мин. 4 сек.</t>
+    <t>2 ч. 41 мин. 04 сек.</t>
   </si>
   <si>
     <t>яПанацея</t>
@@ -6602,7 +6602,7 @@
     <t>Гира</t>
   </si>
   <si>
-    <t>8 ч. 8 мин. 0 сек.</t>
+    <t>8 ч. 08 мин. 00 сек.</t>
   </si>
   <si>
     <t>fisher</t>
@@ -6626,7 +6626,7 @@
     <t>EclipseJDK</t>
   </si>
   <si>
-    <t>43 ч. 30 мин. 2 сек.</t>
+    <t>43 ч. 30 мин. 02 сек.</t>
   </si>
   <si>
     <t>995–1002</t>
@@ -6677,7 +6677,7 @@
     <t>РодионГ</t>
   </si>
   <si>
-    <t>7 ч. 20 мин. 3 сек.</t>
+    <t>7 ч. 20 мин. 03 сек.</t>
   </si>
   <si>
     <t>1003–1013</t>
@@ -6704,13 +6704,13 @@
     <t>ElaS</t>
   </si>
   <si>
-    <t>1 ч. 49 мин. 8 сек.</t>
+    <t>1 ч. 49 мин. 08 сек.</t>
   </si>
   <si>
     <t>nickliverpool</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 21 сек.</t>
+    <t>2 ч. 01 мин. 21 сек.</t>
   </si>
   <si>
     <t>danyaCH</t>
@@ -6722,7 +6722,7 @@
     <t>hrenovaya_klava</t>
   </si>
   <si>
-    <t>2 ч. 35 мин. 3 сек.</t>
+    <t>2 ч. 35 мин. 03 сек.</t>
   </si>
   <si>
     <t>clair</t>
@@ -6755,13 +6755,13 @@
     <t>violetlux_</t>
   </si>
   <si>
-    <t>1 ч. 11 мин. 0 сек.</t>
+    <t>1 ч. 11 мин. 00 сек.</t>
   </si>
   <si>
     <t>DcDimon</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 46 сек.</t>
+    <t>2 ч. 01 мин. 46 сек.</t>
   </si>
   <si>
     <t>bkozhaev</t>
@@ -6773,13 +6773,13 @@
     <t>BRATKONDRAT</t>
   </si>
   <si>
-    <t>4 ч. 19 мин. 2 сек.</t>
+    <t>4 ч. 19 мин. 02 сек.</t>
   </si>
   <si>
     <t>victorliric</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 31 сек.</t>
+    <t>5 ч. 06 мин. 31 сек.</t>
   </si>
   <si>
     <t>xlsx</t>
@@ -6806,13 +6806,13 @@
     <t>benighted</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 19 сек.</t>
+    <t>2 ч. 03 мин. 19 сек.</t>
   </si>
   <si>
     <t>nikita25</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 23 сек.</t>
+    <t>3 ч. 01 мин. 23 сек.</t>
   </si>
   <si>
     <t>MaFioZ</t>
@@ -6824,7 +6824,7 @@
     <t>Pechalnik-U</t>
   </si>
   <si>
-    <t>2 ч. 26 мин. 7 сек.</t>
+    <t>2 ч. 26 мин. 07 сек.</t>
   </si>
   <si>
     <t>pashag</t>
@@ -6836,19 +6836,19 @@
     <t>volo_volare</t>
   </si>
   <si>
-    <t>3 ч. 14 мин. 9 сек.</t>
+    <t>3 ч. 14 мин. 09 сек.</t>
   </si>
   <si>
     <t>oligarh83</t>
   </si>
   <si>
-    <t>3 ч. 51 мин. 1 сек.</t>
+    <t>3 ч. 51 мин. 01 сек.</t>
   </si>
   <si>
     <t>coffee_break</t>
   </si>
   <si>
-    <t>5 ч. 9 мин. 11 сек.</t>
+    <t>5 ч. 09 мин. 11 сек.</t>
   </si>
   <si>
     <t>Annabeth</t>
@@ -6878,7 +6878,7 @@
     <t>Zheka169</t>
   </si>
   <si>
-    <t>9 ч. 40 мин. 6 сек.</t>
+    <t>9 ч. 40 мин. 06 сек.</t>
   </si>
   <si>
     <t>gramh</t>
@@ -6890,7 +6890,7 @@
     <t>tyrpyr</t>
   </si>
   <si>
-    <t>11 ч. 13 мин. 5 сек.</t>
+    <t>11 ч. 13 мин. 05 сек.</t>
   </si>
   <si>
     <t>archi77</t>
@@ -6911,7 +6911,7 @@
     <t>Papa_Wolf</t>
   </si>
   <si>
-    <t>1 ч. 22 мин. 6 сек.</t>
+    <t>1 ч. 22 мин. 06 сек.</t>
   </si>
   <si>
     <t>piccolo</t>
@@ -6926,13 +6926,13 @@
     <t>-Vovik-</t>
   </si>
   <si>
-    <t>2 ч. 29 мин. 4 сек.</t>
+    <t>2 ч. 29 мин. 04 сек.</t>
   </si>
   <si>
     <t>UnoMaster</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 25 сек.</t>
+    <t>3 ч. 07 мин. 25 сек.</t>
   </si>
   <si>
     <t>Alexey_</t>
@@ -6944,13 +6944,13 @@
     <t>aimpu</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 2 сек.</t>
+    <t>4 ч. 03 мин. 02 сек.</t>
   </si>
   <si>
     <t>IamCrazy</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 47 сек.</t>
+    <t>4 ч. 01 мин. 47 сек.</t>
   </si>
   <si>
     <t>demonclown</t>
@@ -7004,7 +7004,7 @@
     <t>Ishka</t>
   </si>
   <si>
-    <t>1 ч. 27 мин. 4 сек.</t>
+    <t>1 ч. 27 мин. 04 сек.</t>
   </si>
   <si>
     <t>Mephisto</t>
@@ -7019,13 +7019,13 @@
     <t>Alekeks</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 46 сек.</t>
+    <t>2 ч. 06 мин. 46 сек.</t>
   </si>
   <si>
     <t>Капитанки</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 9 сек.</t>
+    <t>2 ч. 06 мин. 09 сек.</t>
   </si>
   <si>
     <t>iSport</t>
@@ -7049,7 +7049,7 @@
     <t>r0undabout</t>
   </si>
   <si>
-    <t>12 ч. 39 мин. 6 сек.</t>
+    <t>12 ч. 39 мин. 06 сек.</t>
   </si>
   <si>
     <t>VisaryMaster</t>
@@ -7088,7 +7088,7 @@
     <t>Dimanus</t>
   </si>
   <si>
-    <t>1 ч. 51 мин. 7 сек.</t>
+    <t>1 ч. 51 мин. 07 сек.</t>
   </si>
   <si>
     <t>AIastoriaI</t>
@@ -7097,7 +7097,7 @@
     <t>g0d1o</t>
   </si>
   <si>
-    <t>2 ч. 50 мин. 4 сек.</t>
+    <t>2 ч. 50 мин. 04 сек.</t>
   </si>
   <si>
     <t>_NoMaD_</t>
@@ -7115,13 +7115,13 @@
     <t>olimpicano</t>
   </si>
   <si>
-    <t>7 ч. 9 мин. 52 сек.</t>
+    <t>7 ч. 09 мин. 52 сек.</t>
   </si>
   <si>
     <t>Шарманщик</t>
   </si>
   <si>
-    <t>8 ч. 7 мин. 2 сек.</t>
+    <t>8 ч. 07 мин. 02 сек.</t>
   </si>
   <si>
     <t>1075–1082</t>
@@ -7148,7 +7148,7 @@
     <t>madar</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 12 сек.</t>
+    <t>2 ч. 03 мин. 12 сек.</t>
   </si>
   <si>
     <t>Zephir</t>
@@ -7172,7 +7172,7 @@
     <t>Vadimnecha</t>
   </si>
   <si>
-    <t>6 ч. 3 мин. 53 сек.</t>
+    <t>6 ч. 03 мин. 53 сек.</t>
   </si>
   <si>
     <t>1083–1093</t>
@@ -7187,13 +7187,13 @@
     <t>Kharinsky</t>
   </si>
   <si>
-    <t>1 ч. 43 мин. 4 сек.</t>
+    <t>1 ч. 43 мин. 04 сек.</t>
   </si>
   <si>
     <t>Skillmic</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 49 сек.</t>
+    <t>2 ч. 02 мин. 49 сек.</t>
   </si>
   <si>
     <t>Glmz2</t>
@@ -7214,7 +7214,7 @@
     <t>__TEMA__</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 41 сек.</t>
+    <t>4 ч. 04 мин. 41 сек.</t>
   </si>
   <si>
     <t>amt</t>
@@ -7259,7 +7259,7 @@
     <t>Juvman</t>
   </si>
   <si>
-    <t>6 ч. 15 мин. 7 сек.</t>
+    <t>6 ч. 15 мин. 07 сек.</t>
   </si>
   <si>
     <t>Гений_</t>
@@ -7274,13 +7274,13 @@
     <t>Dialex</t>
   </si>
   <si>
-    <t>1 ч. 54 мин. 5 сек.</t>
+    <t>1 ч. 54 мин. 05 сек.</t>
   </si>
   <si>
     <t>foreword92</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 8 сек.</t>
+    <t>2 ч. 02 мин. 08 сек.</t>
   </si>
   <si>
     <t>RandomDude</t>
@@ -7316,7 +7316,7 @@
     <t>Dany</t>
   </si>
   <si>
-    <t>20 ч. 11 мин. 9 сек.</t>
+    <t>20 ч. 11 мин. 09 сек.</t>
   </si>
   <si>
     <t>1106–1117</t>
@@ -7337,7 +7337,7 @@
     <t>VSH</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 36 сек.</t>
+    <t>2 ч. 04 мин. 36 сек.</t>
   </si>
   <si>
     <t>EkonomiSSSt</t>
@@ -7373,13 +7373,13 @@
     <t>VladimirZhirov</t>
   </si>
   <si>
-    <t>5 ч. 51 мин. 3 сек.</t>
+    <t>5 ч. 51 мин. 03 сек.</t>
   </si>
   <si>
     <t>клавоинка</t>
   </si>
   <si>
-    <t>6 ч. 34 мин. 8 сек.</t>
+    <t>6 ч. 34 мин. 08 сек.</t>
   </si>
   <si>
     <t>sudwind</t>
@@ -7391,7 +7391,7 @@
     <t>Outofshape</t>
   </si>
   <si>
-    <t>10 ч. 46 мин. 0 сек.</t>
+    <t>10 ч. 46 мин. 00 сек.</t>
   </si>
   <si>
     <t>1118–1124</t>
@@ -7400,7 +7400,7 @@
     <t>su-35</t>
   </si>
   <si>
-    <t>1 ч. 15 мин. 6 сек.</t>
+    <t>1 ч. 15 мин. 06 сек.</t>
   </si>
   <si>
     <t>ом_</t>
@@ -7487,7 +7487,7 @@
     <t>вовик58</t>
   </si>
   <si>
-    <t>14 ч. 25 мин. 1 сек.</t>
+    <t>14 ч. 25 мин. 01 сек.</t>
   </si>
   <si>
     <t>eltest12</t>
@@ -7514,13 +7514,13 @@
     <t>l_y_n_x</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 20 сек.</t>
+    <t>2 ч. 08 мин. 20 сек.</t>
   </si>
   <si>
     <t>MightySan</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 30 сек.</t>
+    <t>2 ч. 07 мин. 30 сек.</t>
   </si>
   <si>
     <t>Сашипками</t>
@@ -7565,7 +7565,7 @@
     <t>bosuy</t>
   </si>
   <si>
-    <t>11 ч. 16 мин. 6 сек.</t>
+    <t>11 ч. 16 мин. 06 сек.</t>
   </si>
   <si>
     <t>1146–1157</t>
@@ -7622,13 +7622,13 @@
     <t>ZeeWaibiar</t>
   </si>
   <si>
-    <t>6 ч. 54 мин. 8 сек.</t>
+    <t>6 ч. 54 мин. 08 сек.</t>
   </si>
   <si>
     <t>SamArKin</t>
   </si>
   <si>
-    <t>9 ч. 17 мин. 0 сек.</t>
+    <t>9 ч. 17 мин. 00 сек.</t>
   </si>
   <si>
     <t>Alber</t>
@@ -7661,25 +7661,25 @@
     <t>adocs</t>
   </si>
   <si>
-    <t>1 ч. 40 мин. 2 сек.</t>
+    <t>1 ч. 40 мин. 02 сек.</t>
   </si>
   <si>
     <t>Doode</t>
   </si>
   <si>
-    <t>1 ч. 46 мин. 0 сек.</t>
+    <t>1 ч. 46 мин. 00 сек.</t>
   </si>
   <si>
     <t>ArtIntel</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 21 сек.</t>
+    <t>3 ч. 01 мин. 21 сек.</t>
   </si>
   <si>
     <t>denver14</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 50 сек.</t>
+    <t>3 ч. 04 мин. 50 сек.</t>
   </si>
   <si>
     <t>MrDenro</t>
@@ -7691,7 +7691,7 @@
     <t>gorvin</t>
   </si>
   <si>
-    <t>11 ч. 13 мин. 7 сек.</t>
+    <t>11 ч. 13 мин. 07 сек.</t>
   </si>
   <si>
     <t>Akmat</t>
@@ -7793,7 +7793,7 @@
     <t>JumpT</t>
   </si>
   <si>
-    <t>2 ч. 33 мин. 0 сек.</t>
+    <t>2 ч. 33 мин. 00 сек.</t>
   </si>
   <si>
     <t>leer</t>
@@ -7817,7 +7817,7 @@
     <t>Ghost-Rider</t>
   </si>
   <si>
-    <t>14 ч. 43 мин. 1 сек.</t>
+    <t>14 ч. 43 мин. 01 сек.</t>
   </si>
   <si>
     <t>Алека</t>
@@ -7844,7 +7844,7 @@
     <t>logickiller</t>
   </si>
   <si>
-    <t>2 ч. 15 мин. 7 сек.</t>
+    <t>2 ч. 15 мин. 07 сек.</t>
   </si>
   <si>
     <t>dmital</t>
@@ -7874,7 +7874,7 @@
     <t>lesnoysnip</t>
   </si>
   <si>
-    <t>4 ч. 17 мин. 7 сек.</t>
+    <t>4 ч. 17 мин. 07 сек.</t>
   </si>
   <si>
     <t>YuranTM</t>
@@ -7898,13 +7898,13 @@
     <t>Руна</t>
   </si>
   <si>
-    <t>29 ч. 23 мин. 7 сек.</t>
+    <t>29 ч. 23 мин. 07 сек.</t>
   </si>
   <si>
     <t>f0rtuna</t>
   </si>
   <si>
-    <t>32 ч. 8 мин. 47 сек.</t>
+    <t>32 ч. 08 мин. 47 сек.</t>
   </si>
   <si>
     <t>1201–1209</t>
@@ -7925,13 +7925,13 @@
     <t>kitekatya</t>
   </si>
   <si>
-    <t>1 ч. 25 мин. 5 сек.</t>
+    <t>1 ч. 25 мин. 05 сек.</t>
   </si>
   <si>
     <t>__мутя__</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 22 сек.</t>
+    <t>2 ч. 01 мин. 22 сек.</t>
   </si>
   <si>
     <t>eltest1212</t>
@@ -8003,7 +8003,7 @@
     <t>Tenfrow</t>
   </si>
   <si>
-    <t>4 ч. 27 мин. 5 сек.</t>
+    <t>4 ч. 27 мин. 05 сек.</t>
   </si>
   <si>
     <t>Lachka05</t>
@@ -8036,7 +8036,7 @@
     <t>ulitkamix</t>
   </si>
   <si>
-    <t>1 ч. 38 мин. 1 сек.</t>
+    <t>1 ч. 38 мин. 01 сек.</t>
   </si>
   <si>
     <t>Nexuspro</t>
@@ -8048,7 +8048,7 @@
     <t>Классик</t>
   </si>
   <si>
-    <t>1 ч. 41 мин. 4 сек.</t>
+    <t>1 ч. 41 мин. 04 сек.</t>
   </si>
   <si>
     <t>cornelius</t>
@@ -8105,7 +8105,7 @@
     <t>atikin88</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 44 сек.</t>
+    <t>5 ч. 02 мин. 44 сек.</t>
   </si>
   <si>
     <t>Ripcord</t>
@@ -8117,7 +8117,7 @@
     <t>unname</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 49 сек.</t>
+    <t>6 ч. 06 мин. 49 сек.</t>
   </si>
   <si>
     <t>jjjkeg</t>
@@ -8207,7 +8207,7 @@
     <t>Mask2017</t>
   </si>
   <si>
-    <t>20 ч. 9 мин. 15 сек.</t>
+    <t>20 ч. 09 мин. 15 сек.</t>
   </si>
   <si>
     <t>1249–1257</t>
@@ -8216,7 +8216,7 @@
     <t>sklippy</t>
   </si>
   <si>
-    <t>1 ч. 21 мин. 7 сек.</t>
+    <t>1 ч. 21 мин. 07 сек.</t>
   </si>
   <si>
     <t>plyaj519</t>
@@ -8288,7 +8288,7 @@
     <t>Яня</t>
   </si>
   <si>
-    <t>3 ч. 19 мин. 7 сек.</t>
+    <t>3 ч. 19 мин. 07 сек.</t>
   </si>
   <si>
     <t>irradiacia</t>
@@ -8342,7 +8342,7 @@
     <t>hangling</t>
   </si>
   <si>
-    <t>9 ч. 52 мин. 1 сек.</t>
+    <t>9 ч. 52 мин. 01 сек.</t>
   </si>
   <si>
     <t>B0bKa</t>
@@ -8357,7 +8357,7 @@
     <t>уфхцщ</t>
   </si>
   <si>
-    <t>1 ч. 32 мин. 8 сек.</t>
+    <t>1 ч. 32 мин. 08 сек.</t>
   </si>
   <si>
     <t>__Гость_</t>
@@ -8375,7 +8375,7 @@
     <t>Slaveniy</t>
   </si>
   <si>
-    <t>8 ч. 39 мин. 1 сек.</t>
+    <t>8 ч. 39 мин. 01 сек.</t>
   </si>
   <si>
     <t>anatol83</t>
@@ -8408,7 +8408,7 @@
     <t>mantilet</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 59 сек.</t>
+    <t>2 ч. 01 мин. 59 сек.</t>
   </si>
   <si>
     <t>minigl</t>
@@ -8495,7 +8495,7 @@
     <t>Мим</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 59 сек.</t>
+    <t>2 ч. 03 мин. 59 сек.</t>
   </si>
   <si>
     <t>ShdwWrrr</t>
@@ -8537,7 +8537,7 @@
     <t>yog321</t>
   </si>
   <si>
-    <t>5 ч. 49 мин. 5 сек.</t>
+    <t>5 ч. 49 мин. 05 сек.</t>
   </si>
   <si>
     <t>fish-mish</t>
@@ -8549,7 +8549,7 @@
     <t>YaRomashka</t>
   </si>
   <si>
-    <t>6 ч. 2 мин. 45 сек.</t>
+    <t>6 ч. 02 мин. 45 сек.</t>
   </si>
   <si>
     <t>vect</t>
@@ -8564,19 +8564,19 @@
     <t>Lunaries</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 26 сек.</t>
+    <t>2 ч. 01 мин. 26 сек.</t>
   </si>
   <si>
     <t>belkaoboroten</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 23 сек.</t>
+    <t>2 ч. 09 мин. 23 сек.</t>
   </si>
   <si>
     <t>Суоно</t>
   </si>
   <si>
-    <t>2 ч. 22 мин. 9 сек.</t>
+    <t>2 ч. 22 мин. 09 сек.</t>
   </si>
   <si>
     <t>Клевая_черепаха</t>
@@ -8618,19 +8618,19 @@
     <t>nezemlyanin</t>
   </si>
   <si>
-    <t>1 ч. 59 мин. 8 сек.</t>
+    <t>1 ч. 59 мин. 08 сек.</t>
   </si>
   <si>
     <t>TuzemooN</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 52 сек.</t>
+    <t>3 ч. 08 мин. 52 сек.</t>
   </si>
   <si>
     <t>Минералка</t>
   </si>
   <si>
-    <t>5 ч. 40 мин. 5 сек.</t>
+    <t>5 ч. 40 мин. 05 сек.</t>
   </si>
   <si>
     <t>Engi</t>
@@ -8642,7 +8642,7 @@
     <t>наждак</t>
   </si>
   <si>
-    <t>21 ч. 3 мин. 23 сек.</t>
+    <t>21 ч. 03 мин. 23 сек.</t>
   </si>
   <si>
     <t>1320–1332</t>
@@ -8651,7 +8651,7 @@
     <t>_-Brain-_</t>
   </si>
   <si>
-    <t>1 ч. 26 мин. 5 сек.</t>
+    <t>1 ч. 26 мин. 05 сек.</t>
   </si>
   <si>
     <t>i_vam98</t>
@@ -8717,7 +8717,7 @@
     <t>шамик</t>
   </si>
   <si>
-    <t>26 ч. 30 мин. 9 сек.</t>
+    <t>26 ч. 30 мин. 09 сек.</t>
   </si>
   <si>
     <t>1333–1339</t>
@@ -8744,7 +8744,7 @@
     <t>zewz</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 36 сек.</t>
+    <t>5 ч. 06 мин. 36 сек.</t>
   </si>
   <si>
     <t>12061987</t>
@@ -8777,13 +8777,13 @@
     <t>nastyke</t>
   </si>
   <si>
-    <t>3 ч. 25 мин. 1 сек.</t>
+    <t>3 ч. 25 мин. 01 сек.</t>
   </si>
   <si>
     <t>Халк</t>
   </si>
   <si>
-    <t>4 ч. 27 мин. 4 сек.</t>
+    <t>4 ч. 27 мин. 04 сек.</t>
   </si>
   <si>
     <t>qsort</t>
@@ -8816,13 +8816,13 @@
     <t>_Влада_</t>
   </si>
   <si>
-    <t>7 ч. 1 мин. 17 сек.</t>
+    <t>7 ч. 01 мин. 17 сек.</t>
   </si>
   <si>
     <t>dslf</t>
   </si>
   <si>
-    <t>9 ч. 1 мин. 7 сек.</t>
+    <t>9 ч. 01 мин. 07 сек.</t>
   </si>
   <si>
     <t>1350–1359</t>
@@ -8876,13 +8876,13 @@
     <t>Мамай_Папай</t>
   </si>
   <si>
-    <t>5 ч. 21 мин. 0 сек.</t>
+    <t>5 ч. 21 мин. 00 сек.</t>
   </si>
   <si>
     <t>citello</t>
   </si>
   <si>
-    <t>25 ч. 23 мин. 1 сек.</t>
+    <t>25 ч. 23 мин. 01 сек.</t>
   </si>
   <si>
     <t>1360–1365</t>
@@ -8915,7 +8915,7 @@
     <t>AnArda</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 42 сек.</t>
+    <t>6 ч. 09 мин. 42 сек.</t>
   </si>
   <si>
     <t>НиколайГесс</t>
@@ -8930,7 +8930,7 @@
     <t>begemot98</t>
   </si>
   <si>
-    <t>1 ч. 39 мин. 6 сек.</t>
+    <t>1 ч. 39 мин. 06 сек.</t>
   </si>
   <si>
     <t>Тарья</t>
@@ -8942,13 +8942,13 @@
     <t>kibico</t>
   </si>
   <si>
-    <t>1 ч. 56 мин. 7 сек.</t>
+    <t>1 ч. 56 мин. 07 сек.</t>
   </si>
   <si>
     <t>daktule</t>
   </si>
   <si>
-    <t>6 ч. 12 мин. 8 сек.</t>
+    <t>6 ч. 12 мин. 08 сек.</t>
   </si>
   <si>
     <t>Пашуня</t>
@@ -8966,7 +8966,7 @@
     <t>-777-</t>
   </si>
   <si>
-    <t>9 ч. 1 мин. 0 сек.</t>
+    <t>9 ч. 01 мин. 00 сек.</t>
   </si>
   <si>
     <t>getlostvayo</t>
@@ -8990,7 +8990,7 @@
     <t>denchi</t>
   </si>
   <si>
-    <t>2 ч. 24 мин. 0 сек.</t>
+    <t>2 ч. 24 мин. 00 сек.</t>
   </si>
   <si>
     <t>ksneo</t>
@@ -9002,7 +9002,7 @@
     <t>Корн</t>
   </si>
   <si>
-    <t>8 ч. 6 мин. 41 сек.</t>
+    <t>8 ч. 06 мин. 41 сек.</t>
   </si>
   <si>
     <t>Догонялка</t>
@@ -9017,13 +9017,13 @@
     <t>дерик</t>
   </si>
   <si>
-    <t>1 ч. 33 мин. 9 сек.</t>
+    <t>1 ч. 33 мин. 09 сек.</t>
   </si>
   <si>
     <t>smol67</t>
   </si>
   <si>
-    <t>1 ч. 33 мин. 7 сек.</t>
+    <t>1 ч. 33 мин. 07 сек.</t>
   </si>
   <si>
     <t>quay</t>
@@ -9077,7 +9077,7 @@
     <t>dzheo_liliya</t>
   </si>
   <si>
-    <t>1 ч. 18 мин. 5 сек.</t>
+    <t>1 ч. 18 мин. 05 сек.</t>
   </si>
   <si>
     <t>slayeked</t>
@@ -9119,7 +9119,7 @@
     <t>Cotzi</t>
   </si>
   <si>
-    <t>11 ч. 24 мин. 5 сек.</t>
+    <t>11 ч. 24 мин. 05 сек.</t>
   </si>
   <si>
     <t>1397–1400</t>
@@ -9170,7 +9170,7 @@
     <t>malencaya</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 42 сек.</t>
+    <t>2 ч. 02 мин. 42 сек.</t>
   </si>
   <si>
     <t>Awyra</t>
@@ -9182,7 +9182,7 @@
     <t>Fuuruub</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 22 сек.</t>
+    <t>3 ч. 09 мин. 22 сек.</t>
   </si>
   <si>
     <t>юзер_нейм</t>
@@ -9206,7 +9206,7 @@
     <t>WarroR</t>
   </si>
   <si>
-    <t>16 ч. 52 мин. 8 сек.</t>
+    <t>16 ч. 52 мин. 08 сек.</t>
   </si>
   <si>
     <t>xdg-</t>
@@ -9221,7 +9221,7 @@
     <t>Sej</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 5 сек.</t>
+    <t>2 ч. 09 мин. 05 сек.</t>
   </si>
   <si>
     <t>VQV</t>
@@ -9254,7 +9254,7 @@
     <t>BAY</t>
   </si>
   <si>
-    <t>7 ч. 49 мин. 4 сек.</t>
+    <t>7 ч. 49 мин. 04 сек.</t>
   </si>
   <si>
     <t>telephone</t>
@@ -9269,13 +9269,13 @@
     <t>Aleksandeer</t>
   </si>
   <si>
-    <t>1 ч. 28 мин. 4 сек.</t>
+    <t>1 ч. 28 мин. 04 сек.</t>
   </si>
   <si>
     <t>baltun_leo</t>
   </si>
   <si>
-    <t>8 ч. 0 мин. 49 сек.</t>
+    <t>8 ч. 00 мин. 49 сек.</t>
   </si>
   <si>
     <t>1422–1430</t>
@@ -9296,13 +9296,13 @@
     <t>SilverNeko</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 4 сек.</t>
+    <t>2 ч. 02 мин. 04 сек.</t>
   </si>
   <si>
     <t>Likuku</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 2 сек.</t>
+    <t>2 ч. 08 мин. 02 сек.</t>
   </si>
   <si>
     <t>шиза-мэн</t>
@@ -9320,13 +9320,13 @@
     <t>Shivo</t>
   </si>
   <si>
-    <t>5 ч. 1 мин. 7 сек.</t>
+    <t>5 ч. 01 мин. 07 сек.</t>
   </si>
   <si>
     <t>SnalM</t>
   </si>
   <si>
-    <t>5 ч. 36 мин. 4 сек.</t>
+    <t>5 ч. 36 мин. 04 сек.</t>
   </si>
   <si>
     <t>alexix</t>
@@ -9341,13 +9341,13 @@
     <t>доползу</t>
   </si>
   <si>
-    <t>1 ч. 54 мин. 2 сек.</t>
+    <t>1 ч. 54 мин. 02 сек.</t>
   </si>
   <si>
     <t>kirson45</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 51 сек.</t>
+    <t>2 ч. 09 мин. 51 сек.</t>
   </si>
   <si>
     <t>vitazik</t>
@@ -9419,7 +9419,7 @@
     <t>Kalyn-Davis</t>
   </si>
   <si>
-    <t>4 ч. 30 мин. 1 сек.</t>
+    <t>4 ч. 30 мин. 01 сек.</t>
   </si>
   <si>
     <t>ehbq</t>
@@ -9452,19 +9452,19 @@
     <t>forbatyr</t>
   </si>
   <si>
-    <t>6 ч. 11 мин. 5 сек.</t>
+    <t>6 ч. 11 мин. 05 сек.</t>
   </si>
   <si>
     <t>Thousend</t>
   </si>
   <si>
-    <t>11 ч. 7 мин. 3 сек.</t>
+    <t>11 ч. 07 мин. 03 сек.</t>
   </si>
   <si>
     <t>dmitriy156</t>
   </si>
   <si>
-    <t>26 ч. 58 мин. 9 сек.</t>
+    <t>26 ч. 58 мин. 09 сек.</t>
   </si>
   <si>
     <t>1451–1456</t>
@@ -9524,19 +9524,19 @@
     <t>Collider</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 3 сек.</t>
+    <t>2 ч. 06 мин. 03 сек.</t>
   </si>
   <si>
     <t>ksundel</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 16 сек.</t>
+    <t>2 ч. 03 мин. 16 сек.</t>
   </si>
   <si>
     <t>notebukman</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 43 сек.</t>
+    <t>2 ч. 02 мин. 43 сек.</t>
   </si>
   <si>
     <t>1462–1469</t>
@@ -9545,7 +9545,7 @@
     <t>Грубиян</t>
   </si>
   <si>
-    <t>1 ч. 25 мин. 4 сек.</t>
+    <t>1 ч. 25 мин. 04 сек.</t>
   </si>
   <si>
     <t>Klavius</t>
@@ -9569,7 +9569,7 @@
     <t>Еремей</t>
   </si>
   <si>
-    <t>7 ч. 1 мин. 57 сек.</t>
+    <t>7 ч. 01 мин. 57 сек.</t>
   </si>
   <si>
     <t>Stob</t>
@@ -9581,7 +9581,7 @@
     <t>Русинов</t>
   </si>
   <si>
-    <t>7 ч. 2 мин. 25 сек.</t>
+    <t>7 ч. 02 мин. 25 сек.</t>
   </si>
   <si>
     <t>Vi1993</t>
@@ -9620,7 +9620,7 @@
     <t>unknown_error</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 17 сек.</t>
+    <t>3 ч. 01 мин. 17 сек.</t>
   </si>
   <si>
     <t>Umunty</t>
@@ -9665,7 +9665,7 @@
     <t>Caterpillar</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 4 сек.</t>
+    <t>3 ч. 03 мин. 04 сек.</t>
   </si>
   <si>
     <t>motash</t>
@@ -9683,7 +9683,7 @@
     <t>Сергуня</t>
   </si>
   <si>
-    <t>8 ч. 49 мин. 7 сек.</t>
+    <t>8 ч. 49 мин. 07 сек.</t>
   </si>
   <si>
     <t>oleglen</t>
@@ -9725,13 +9725,13 @@
     <t>karabashka</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 54 сек.</t>
+    <t>2 ч. 07 мин. 54 сек.</t>
   </si>
   <si>
     <t>БурячОК</t>
   </si>
   <si>
-    <t>2 ч. 44 мин. 7 сек.</t>
+    <t>2 ч. 44 мин. 07 сек.</t>
   </si>
   <si>
     <t>WHATUPBIATCH578</t>
@@ -9743,7 +9743,7 @@
     <t>Эхпрокачуу</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 21 сек.</t>
+    <t>6 ч. 07 мин. 21 сек.</t>
   </si>
   <si>
     <t>TypePracticeRu1</t>
@@ -9782,7 +9782,7 @@
     <t>python_py</t>
   </si>
   <si>
-    <t>5 ч. 47 мин. 7 сек.</t>
+    <t>5 ч. 47 мин. 07 сек.</t>
   </si>
   <si>
     <t>1500–1503</t>
@@ -9791,7 +9791,7 @@
     <t>DM-x</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 9 сек.</t>
+    <t>2 ч. 08 мин. 09 сек.</t>
   </si>
   <si>
     <t>Ночная_фурия</t>
@@ -9818,7 +9818,7 @@
     <t>Kisk</t>
   </si>
   <si>
-    <t>1 ч. 45 мин. 9 сек.</t>
+    <t>1 ч. 45 мин. 09 сек.</t>
   </si>
   <si>
     <t>AleAle</t>
@@ -9842,7 +9842,7 @@
     <t>nata-natusechka</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 10 сек.</t>
+    <t>3 ч. 03 мин. 10 сек.</t>
   </si>
   <si>
     <t>Solov09</t>
@@ -9899,13 +9899,13 @@
     <t>Гришка_конокрад</t>
   </si>
   <si>
-    <t>2 ч. 32 мин. 6 сек.</t>
+    <t>2 ч. 32 мин. 06 сек.</t>
   </si>
   <si>
     <t>Speed_King</t>
   </si>
   <si>
-    <t>3 ч. 34 мин. 1 сек.</t>
+    <t>3 ч. 34 мин. 01 сек.</t>
   </si>
   <si>
     <t>blitz_va</t>
@@ -9932,7 +9932,7 @@
     <t>lector125</t>
   </si>
   <si>
-    <t>1 ч. 37 мин. 1 сек.</t>
+    <t>1 ч. 37 мин. 01 сек.</t>
   </si>
   <si>
     <t>Kolyuhin</t>
@@ -10022,7 +10022,7 @@
     <t>Atljh0987</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 16 сек.</t>
+    <t>6 ч. 06 мин. 16 сек.</t>
   </si>
   <si>
     <t>7dd7</t>
@@ -10058,7 +10058,7 @@
     <t>ВАТ</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 51 сек.</t>
+    <t>4 ч. 03 мин. 51 сек.</t>
   </si>
   <si>
     <t>Геос</t>
@@ -10079,7 +10079,7 @@
     <t>map82_top</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 39 сек.</t>
+    <t>2 ч. 00 мин. 39 сек.</t>
   </si>
   <si>
     <t>1546–1551</t>
@@ -10088,7 +10088,7 @@
     <t>Aletca</t>
   </si>
   <si>
-    <t>1 ч. 35 мин. 1 сек.</t>
+    <t>1 ч. 35 мин. 01 сек.</t>
   </si>
   <si>
     <t>rayform</t>
@@ -10100,7 +10100,7 @@
     <t>IVIVI</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 52 сек.</t>
+    <t>2 ч. 03 мин. 52 сек.</t>
   </si>
   <si>
     <t>3_14чатка</t>
@@ -10133,7 +10133,7 @@
     <t>Hellki</t>
   </si>
   <si>
-    <t>2 ч. 20 мин. 2 сек.</t>
+    <t>2 ч. 20 мин. 02 сек.</t>
   </si>
   <si>
     <t>sam09</t>
@@ -10217,7 +10217,7 @@
     <t>Графит</t>
   </si>
   <si>
-    <t>33 ч. 1 мин. 1 сек.</t>
+    <t>33 ч. 01 мин. 01 сек.</t>
   </si>
   <si>
     <t>1567–1573</t>
@@ -10238,7 +10238,7 @@
     <t>Лелюгри</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 8 сек.</t>
+    <t>2 ч. 05 мин. 08 сек.</t>
   </si>
   <si>
     <t>Dopeman</t>
@@ -10250,19 +10250,19 @@
     <t>zapletayka</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 0 сек.</t>
+    <t>3 ч. 07 мин. 00 сек.</t>
   </si>
   <si>
     <t>massa</t>
   </si>
   <si>
-    <t>4 ч. 8 мин. 14 сек.</t>
+    <t>4 ч. 08 мин. 14 сек.</t>
   </si>
   <si>
     <t>Креслоноцец</t>
   </si>
   <si>
-    <t>17 ч. 2 мин. 53 сек.</t>
+    <t>17 ч. 02 мин. 53 сек.</t>
   </si>
   <si>
     <t>1574–1575</t>
@@ -10277,7 +10277,7 @@
     <t>svetophor</t>
   </si>
   <si>
-    <t>32 ч. 21 мин. 2 сек.</t>
+    <t>32 ч. 21 мин. 02 сек.</t>
   </si>
   <si>
     <t>1576–1577</t>
@@ -10307,13 +10307,13 @@
     <t>Capr</t>
   </si>
   <si>
-    <t>3 ч. 30 мин. 7 сек.</t>
+    <t>3 ч. 30 мин. 07 сек.</t>
   </si>
   <si>
     <t>kochtaik</t>
   </si>
   <si>
-    <t>3 ч. 52 мин. 4 сек.</t>
+    <t>3 ч. 52 мин. 04 сек.</t>
   </si>
   <si>
     <t>kleine_hering</t>
@@ -10337,7 +10337,7 @@
     <t>ТыГонишь</t>
   </si>
   <si>
-    <t>9 ч. 30 мин. 5 сек.</t>
+    <t>9 ч. 30 мин. 05 сек.</t>
   </si>
   <si>
     <t>Воронин</t>
@@ -10358,13 +10358,13 @@
     <t>Hei5</t>
   </si>
   <si>
-    <t>4 ч. 8 мин. 27 сек.</t>
+    <t>4 ч. 08 мин. 27 сек.</t>
   </si>
   <si>
     <t>nikit</t>
   </si>
   <si>
-    <t>4 ч. 46 мин. 0 сек.</t>
+    <t>4 ч. 46 мин. 00 сек.</t>
   </si>
   <si>
     <t>1589–1596</t>
@@ -10385,19 +10385,19 @@
     <t>gevis</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 38 сек.</t>
+    <t>3 ч. 01 мин. 38 сек.</t>
   </si>
   <si>
     <t>Iva_</t>
   </si>
   <si>
-    <t>3 ч. 16 мин. 0 сек.</t>
+    <t>3 ч. 16 мин. 00 сек.</t>
   </si>
   <si>
     <t>usernm</t>
   </si>
   <si>
-    <t>3 ч. 26 мин. 0 сек.</t>
+    <t>3 ч. 26 мин. 00 сек.</t>
   </si>
   <si>
     <t>МОТОРНЫЙ</t>
@@ -10421,13 +10421,13 @@
     <t>Андрей-Мск</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 56 сек.</t>
+    <t>3 ч. 05 мин. 56 сек.</t>
   </si>
   <si>
     <t>Спелый</t>
   </si>
   <si>
-    <t>4 ч. 10 мин. 0 сек.</t>
+    <t>4 ч. 10 мин. 00 сек.</t>
   </si>
   <si>
     <t>LADA220876</t>
@@ -10439,7 +10439,7 @@
     <t>a_inc</t>
   </si>
   <si>
-    <t>14 ч. 8 мин. 27 сек.</t>
+    <t>14 ч. 08 мин. 27 сек.</t>
   </si>
   <si>
     <t>natalishka</t>
@@ -10454,19 +10454,19 @@
     <t>dim4ik11</t>
   </si>
   <si>
-    <t>3 ч. 33 мин. 1 сек.</t>
+    <t>3 ч. 33 мин. 01 сек.</t>
   </si>
   <si>
     <t>azyl</t>
   </si>
   <si>
-    <t>4 ч. 40 мин. 0 сек.</t>
+    <t>4 ч. 40 мин. 00 сек.</t>
   </si>
   <si>
     <t>zeliks</t>
   </si>
   <si>
-    <t>6 ч. 19 мин. 2 сек.</t>
+    <t>6 ч. 19 мин. 02 сек.</t>
   </si>
   <si>
     <t>Rad1</t>
@@ -10478,7 +10478,7 @@
     <t>AlViNic</t>
   </si>
   <si>
-    <t>18 ч. 6 мин. 56 сек.</t>
+    <t>18 ч. 06 мин. 56 сек.</t>
   </si>
   <si>
     <t>1607–1610</t>
@@ -10487,25 +10487,25 @@
     <t>xopoc79</t>
   </si>
   <si>
-    <t>2 ч. 40 мин. 0 сек.</t>
+    <t>2 ч. 40 мин. 00 сек.</t>
   </si>
   <si>
     <t>FreeBooter</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 54 сек.</t>
+    <t>3 ч. 01 мин. 54 сек.</t>
   </si>
   <si>
     <t>младенец</t>
   </si>
   <si>
-    <t>6 ч. 36 мин. 0 сек.</t>
+    <t>6 ч. 36 мин. 00 сек.</t>
   </si>
   <si>
     <t>Vohel</t>
   </si>
   <si>
-    <t>6 ч. 38 мин. 5 сек.</t>
+    <t>6 ч. 38 мин. 05 сек.</t>
   </si>
   <si>
     <t>1611–1615</t>
@@ -10532,7 +10532,7 @@
     <t>_amateur</t>
   </si>
   <si>
-    <t>2 ч. 50 мин. 1 сек.</t>
+    <t>2 ч. 50 мин. 01 сек.</t>
   </si>
   <si>
     <t>Тенерифа</t>
@@ -10553,7 +10553,7 @@
     <t>graticule</t>
   </si>
   <si>
-    <t>1 ч. 59 мин. 4 сек.</t>
+    <t>1 ч. 59 мин. 04 сек.</t>
   </si>
   <si>
     <t>iApex</t>
@@ -10565,13 +10565,13 @@
     <t>IRISCHKA</t>
   </si>
   <si>
-    <t>4 ч. 33 мин. 4 сек.</t>
+    <t>4 ч. 33 мин. 04 сек.</t>
   </si>
   <si>
     <t>Paloma</t>
   </si>
   <si>
-    <t>5 ч. 4 мин. 16 сек.</t>
+    <t>5 ч. 04 мин. 16 сек.</t>
   </si>
   <si>
     <t>1621–1628</t>
@@ -10592,13 +10592,13 @@
     <t>jriynik2312</t>
   </si>
   <si>
-    <t>3 ч. 0 мин. 11 сек.</t>
+    <t>3 ч. 00 мин. 11 сек.</t>
   </si>
   <si>
     <t>ajka616</t>
   </si>
   <si>
-    <t>4 ч. 11 мин. 6 сек.</t>
+    <t>4 ч. 11 мин. 06 сек.</t>
   </si>
   <si>
     <t>Yaa</t>
@@ -10649,7 +10649,7 @@
     <t>master-blaster</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 52 сек.</t>
+    <t>3 ч. 06 мин. 52 сек.</t>
   </si>
   <si>
     <t>zvo4</t>
@@ -10670,7 +10670,7 @@
     <t>GYRTOVOY</t>
   </si>
   <si>
-    <t>2 ч. 23 мин. 5 сек.</t>
+    <t>2 ч. 23 мин. 05 сек.</t>
   </si>
   <si>
     <t>at0</t>
@@ -10688,13 +10688,13 @@
     <t>Книголюб</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 10 сек.</t>
+    <t>4 ч. 00 мин. 10 сек.</t>
   </si>
   <si>
     <t>Скороход</t>
   </si>
   <si>
-    <t>5 ч. 27 мин. 5 сек.</t>
+    <t>5 ч. 27 мин. 05 сек.</t>
   </si>
   <si>
     <t>Вовчик-инженер</t>
@@ -10706,13 +10706,13 @@
     <t>Катря</t>
   </si>
   <si>
-    <t>7 ч. 30 мин. 8 сек.</t>
+    <t>7 ч. 30 мин. 08 сек.</t>
   </si>
   <si>
     <t>asalaga</t>
   </si>
   <si>
-    <t>11 ч. 1 мин. 55 сек.</t>
+    <t>11 ч. 01 мин. 55 сек.</t>
   </si>
   <si>
     <t>1643</t>
@@ -10730,7 +10730,7 @@
     <t>Raptors</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 33 сек.</t>
+    <t>3 ч. 06 мин. 33 сек.</t>
   </si>
   <si>
     <t>zhurauliou89</t>
@@ -10742,7 +10742,7 @@
     <t>apchhi</t>
   </si>
   <si>
-    <t>4 ч. 41 мин. 6 сек.</t>
+    <t>4 ч. 41 мин. 06 сек.</t>
   </si>
   <si>
     <t>helgooooooooo_O</t>
@@ -10760,7 +10760,7 @@
     <t>Klume</t>
   </si>
   <si>
-    <t>20 ч. 9 мин. 44 сек.</t>
+    <t>20 ч. 09 мин. 44 сек.</t>
   </si>
   <si>
     <t>1650–1652</t>
@@ -10802,13 +10802,13 @@
     <t>dermodemon</t>
   </si>
   <si>
-    <t>4 ч. 10 мин. 1 сек.</t>
+    <t>4 ч. 10 мин. 01 сек.</t>
   </si>
   <si>
     <t>kathraine</t>
   </si>
   <si>
-    <t>13 ч. 0 мин. 24 сек.</t>
+    <t>13 ч. 00 мин. 24 сек.</t>
   </si>
   <si>
     <t>1657–1660</t>
@@ -10853,7 +10853,7 @@
     <t>lexx2111</t>
   </si>
   <si>
-    <t>2 ч. 24 мин. 3 сек.</t>
+    <t>2 ч. 24 мин. 03 сек.</t>
   </si>
   <si>
     <t>aka-mother</t>
@@ -10871,7 +10871,7 @@
     <t>bonin</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 57 сек.</t>
+    <t>2 ч. 09 мин. 57 сек.</t>
   </si>
   <si>
     <t>1667–1668</t>
@@ -10883,7 +10883,7 @@
     <t>фио</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 50 сек.</t>
+    <t>2 ч. 06 мин. 50 сек.</t>
   </si>
   <si>
     <t>1669–1672</t>
@@ -10970,19 +10970,19 @@
     <t>Jstwrk</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 7 сек.</t>
+    <t>3 ч. 07 мин. 07 сек.</t>
   </si>
   <si>
     <t>schkiel</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 10 сек.</t>
+    <t>3 ч. 05 мин. 10 сек.</t>
   </si>
   <si>
     <t>Фиксик</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 19 сек.</t>
+    <t>4 ч. 04 мин. 19 сек.</t>
   </si>
   <si>
     <t>Youpiter</t>
@@ -10997,7 +10997,7 @@
     <t>АСкворешня-Мчит</t>
   </si>
   <si>
-    <t>5 ч. 5 мин. 47 сек.</t>
+    <t>5 ч. 05 мин. 47 сек.</t>
   </si>
   <si>
     <t>lewchel</t>
@@ -11018,7 +11018,7 @@
     <t>IIgora</t>
   </si>
   <si>
-    <t>15 ч. 0 мин. 4 сек.</t>
+    <t>15 ч. 00 мин. 04 сек.</t>
   </si>
   <si>
     <t>1689</t>
@@ -11054,7 +11054,7 @@
     <t>DaNeeRon</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 40 сек.</t>
+    <t>2 ч. 08 мин. 40 сек.</t>
   </si>
   <si>
     <t>kalina70</t>
@@ -11075,7 +11075,7 @@
     <t>vega-s</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 2 сек.</t>
+    <t>2 ч. 05 мин. 02 сек.</t>
   </si>
   <si>
     <t>TibiNu</t>
@@ -11090,7 +11090,7 @@
     <t>lusisha</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 12 сек.</t>
+    <t>4 ч. 01 мин. 12 сек.</t>
   </si>
   <si>
     <t>1700–1702</t>
@@ -11117,7 +11117,7 @@
     <t>ps1501</t>
   </si>
   <si>
-    <t>3 ч. 53 мин. 5 сек.</t>
+    <t>3 ч. 53 мин. 05 сек.</t>
   </si>
   <si>
     <t>lubomir</t>
@@ -11144,13 +11144,13 @@
     <t>pikwik</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 27 сек.</t>
+    <t>3 ч. 08 мин. 27 сек.</t>
   </si>
   <si>
     <t>neophyte</t>
   </si>
   <si>
-    <t>6 ч. 2 мин. 8 сек.</t>
+    <t>6 ч. 02 мин. 08 сек.</t>
   </si>
   <si>
     <t>1709–1711</t>
@@ -11180,7 +11180,7 @@
     <t>DimaRoot</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 10 сек.</t>
+    <t>3 ч. 01 мин. 10 сек.</t>
   </si>
   <si>
     <t>1713</t>
@@ -11189,7 +11189,7 @@
     <t>Татуяна</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 58 сек.</t>
+    <t>4 ч. 04 мин. 58 сек.</t>
   </si>
   <si>
     <t>1714</t>
@@ -11213,13 +11213,13 @@
     <t>oless19</t>
   </si>
   <si>
-    <t>2 ч. 37 мин. 3 сек.</t>
+    <t>2 ч. 37 мин. 03 сек.</t>
   </si>
   <si>
     <t>Bujhm99</t>
   </si>
   <si>
-    <t>2 ч. 25 мин. 3 сек.</t>
+    <t>2 ч. 25 мин. 03 сек.</t>
   </si>
   <si>
     <t>js_evropa</t>
@@ -11246,7 +11246,7 @@
     <t>Savitri</t>
   </si>
   <si>
-    <t>7 ч. 7 мин. 48 сек.</t>
+    <t>7 ч. 07 мин. 48 сек.</t>
   </si>
   <si>
     <t>1722</t>
@@ -11255,7 +11255,7 @@
     <t>Adronab</t>
   </si>
   <si>
-    <t>14 ч. 3 мин. 58 сек.</t>
+    <t>14 ч. 03 мин. 58 сек.</t>
   </si>
   <si>
     <t>1723</t>
@@ -11303,7 +11303,7 @@
     <t>vogoniu</t>
   </si>
   <si>
-    <t>6 ч. 3 мин. 38 сек.</t>
+    <t>6 ч. 03 мин. 38 сек.</t>
   </si>
   <si>
     <t>1729</t>
@@ -11339,7 +11339,7 @@
     <t>Adgedan</t>
   </si>
   <si>
-    <t>2 ч. 39 мин. 0 сек.</t>
+    <t>2 ч. 39 мин. 00 сек.</t>
   </si>
   <si>
     <t>1733–1735</t>
@@ -11348,7 +11348,7 @@
     <t>tan9va</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 5 сек.</t>
+    <t>3 ч. 01 мин. 05 сек.</t>
   </si>
   <si>
     <t>fwf4</t>
@@ -11375,7 +11375,7 @@
     <t>Nik70</t>
   </si>
   <si>
-    <t>8 ч. 5 мин. 20 сек.</t>
+    <t>8 ч. 05 мин. 20 сек.</t>
   </si>
   <si>
     <t>1738</t>
@@ -11426,7 +11426,7 @@
     <t>vova555</t>
   </si>
   <si>
-    <t>3 ч. 59 мин. 3 сек.</t>
+    <t>3 ч. 59 мин. 03 сек.</t>
   </si>
   <si>
     <t>1744</t>
@@ -11435,7 +11435,7 @@
     <t>zdanhik</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 36 сек.</t>
+    <t>3 ч. 06 мин. 36 сек.</t>
   </si>
   <si>
     <t>1745</t>
@@ -11444,7 +11444,7 @@
     <t>vostok72</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 31 сек.</t>
+    <t>6 ч. 07 мин. 31 сек.</t>
   </si>
   <si>
     <t>1746</t>
@@ -11462,7 +11462,7 @@
     <t>Andorian</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 3 сек.</t>
+    <t>5 ч. 06 мин. 03 сек.</t>
   </si>
   <si>
     <t>1748</t>
